--- a/model/results/ELEC/v_demand.xlsx
+++ b/model/results/ELEC/v_demand.xlsx
@@ -1456,13 +1456,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>752981.2188329385</v>
+        <v>801043.8498222749</v>
       </c>
       <c r="C2" t="n">
-        <v>1129471.828249407</v>
+        <v>1201565.774733412</v>
       </c>
       <c r="D2" t="n">
-        <v>5647359.141247038</v>
+        <v>6007828.873667061</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1500,13 +1500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>668546.5900979552</v>
+        <v>801043.8498222749</v>
       </c>
       <c r="C4" t="n">
-        <v>1002819.885146933</v>
+        <v>7209394.648400473</v>
       </c>
       <c r="D4" t="n">
-        <v>5014099.425734664</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         <v>245186.4255159434</v>
       </c>
       <c r="C5" t="n">
-        <v>2206677.829643491</v>
+        <v>367779.6382739151</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1838898.191369576</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1632,19 +1632,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1597561.871545526</v>
+        <v>1567378.30745761</v>
       </c>
       <c r="C10" t="n">
-        <v>209737.0735339778</v>
+        <v>174909.8842017674</v>
       </c>
       <c r="D10" t="n">
-        <v>129092.7817913932</v>
+        <v>124449.1565470984</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1290927.817913932</v>
+        <v>1244491.565470984</v>
       </c>
     </row>
     <row r="11">
@@ -1654,19 +1654,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>255609.8994472841</v>
+        <v>250780.5291932177</v>
       </c>
       <c r="C11" t="n">
-        <v>33557.93176543646</v>
+        <v>27985.58147228279</v>
       </c>
       <c r="D11" t="n">
-        <v>20654.8450866229</v>
+        <v>19911.86504753575</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>206548.450866229</v>
+        <v>199118.6504753575</v>
       </c>
     </row>
     <row r="12">
@@ -1676,19 +1676,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>127804.9497236421</v>
+        <v>125390.2645966088</v>
       </c>
       <c r="C12" t="n">
-        <v>16778.96588271823</v>
+        <v>13992.7907361414</v>
       </c>
       <c r="D12" t="n">
-        <v>10327.42254331145</v>
+        <v>9955.932523767875</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>103274.2254331145</v>
+        <v>99559.32523767874</v>
       </c>
     </row>
     <row r="13">
@@ -1698,19 +1698,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>207683.0433009184</v>
+        <v>203759.1799694893</v>
       </c>
       <c r="C13" t="n">
-        <v>27265.81955941712</v>
+        <v>22738.28494622977</v>
       </c>
       <c r="D13" t="n">
-        <v>16782.06163288111</v>
+        <v>16178.3903511228</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>167820.6163288111</v>
+        <v>161783.9035112279</v>
       </c>
     </row>
     <row r="14">
@@ -1720,19 +1720,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>143780.5684390973</v>
+        <v>141064.047671185</v>
       </c>
       <c r="C14" t="n">
-        <v>18876.33661805801</v>
+        <v>15741.88957815907</v>
       </c>
       <c r="D14" t="n">
-        <v>11618.35036122538</v>
+        <v>11200.42408923886</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>116183.5036122538</v>
+        <v>112004.2408923886</v>
       </c>
     </row>
     <row r="15">
@@ -1742,19 +1742,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>718902.8421954866</v>
+        <v>705320.2383559247</v>
       </c>
       <c r="C15" t="n">
-        <v>94381.68309029003</v>
+        <v>78709.44789079535</v>
       </c>
       <c r="D15" t="n">
-        <v>58091.75180612691</v>
+        <v>56002.1204461943</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>580917.5180612691</v>
+        <v>560021.2044619429</v>
       </c>
     </row>
     <row r="16">
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1278049.497236421</v>
+        <v>1253902.645966088</v>
       </c>
       <c r="C16" t="n">
-        <v>167789.6588271823</v>
+        <v>139927.907361414</v>
       </c>
       <c r="D16" t="n">
-        <v>103274.2254331145</v>
+        <v>99559.32523767876</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1032742.254331145</v>
+        <v>995593.2523767875</v>
       </c>
     </row>
     <row r="17">
@@ -1786,19 +1786,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>479268.5614636578</v>
+        <v>470213.4922372831</v>
       </c>
       <c r="C17" t="n">
-        <v>62921.12206019335</v>
+        <v>52472.96526053023</v>
       </c>
       <c r="D17" t="n">
-        <v>38727.83453741795</v>
+        <v>37334.74696412953</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>387278.3453741794</v>
+        <v>373347.4696412953</v>
       </c>
     </row>
     <row r="18">
@@ -1808,19 +1808,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>159756.1871545526</v>
+        <v>156737.830745761</v>
       </c>
       <c r="C18" t="n">
-        <v>20973.70735339779</v>
+        <v>17490.98842017675</v>
       </c>
       <c r="D18" t="n">
-        <v>12909.27817913932</v>
+        <v>12444.91565470984</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>129092.7817913932</v>
+        <v>124449.1565470984</v>
       </c>
     </row>
     <row r="19">
@@ -1830,19 +1830,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>830732.1732036734</v>
+        <v>815036.7198779574</v>
       </c>
       <c r="C19" t="n">
-        <v>109063.2782376685</v>
+        <v>90953.13978491907</v>
       </c>
       <c r="D19" t="n">
-        <v>67128.24653152443</v>
+        <v>64713.56140449119</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>671282.4653152444</v>
+        <v>647135.6140449117</v>
       </c>
     </row>
     <row r="20">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15975.61871545526</v>
+        <v>15673.78307457611</v>
       </c>
       <c r="C20" t="n">
-        <v>2097.370735339779</v>
+        <v>1749.098842017675</v>
       </c>
       <c r="D20" t="n">
-        <v>1290.927817913931</v>
+        <v>1244.491565470984</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>12909.27817913931</v>
+        <v>12444.91565470984</v>
       </c>
     </row>
     <row r="21">
@@ -1874,19 +1874,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>431341.7053172921</v>
+        <v>423192.1430135549</v>
       </c>
       <c r="C21" t="n">
-        <v>56629.00985417402</v>
+        <v>47225.66873447721</v>
       </c>
       <c r="D21" t="n">
-        <v>34855.05108367615</v>
+        <v>33601.27226771658</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>348550.5108367616</v>
+        <v>336012.7226771658</v>
       </c>
     </row>
     <row r="22">
@@ -1896,19 +1896,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>319512.3743091052</v>
+        <v>313475.6614915221</v>
       </c>
       <c r="C22" t="n">
-        <v>41947.41470679557</v>
+        <v>34981.97684035349</v>
       </c>
       <c r="D22" t="n">
-        <v>25818.55635827863</v>
+        <v>24889.83130941969</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>258185.5635827863</v>
+        <v>248898.3130941969</v>
       </c>
     </row>
     <row r="23">
@@ -1918,19 +1918,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>111829.3310081868</v>
+        <v>109716.4815220327</v>
       </c>
       <c r="C23" t="n">
-        <v>14681.59514737845</v>
+        <v>12243.69189412372</v>
       </c>
       <c r="D23" t="n">
-        <v>9036.494725397521</v>
+        <v>8711.440958296891</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>90364.9472539752</v>
+        <v>87114.40958296889</v>
       </c>
     </row>
     <row r="24">
@@ -1940,19 +1940,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>702927.2234800314</v>
+        <v>689646.4552813485</v>
       </c>
       <c r="C24" t="n">
-        <v>92284.31235495025</v>
+        <v>76960.34904877767</v>
       </c>
       <c r="D24" t="n">
-        <v>56800.82398821298</v>
+        <v>54757.62888072331</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>568008.2398821297</v>
+        <v>547576.288807233</v>
       </c>
     </row>
     <row r="25">
@@ -1962,19 +1962,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>591097.8924718447</v>
+        <v>579929.9737593159</v>
       </c>
       <c r="C25" t="n">
-        <v>77602.71720757181</v>
+        <v>64716.65715465396</v>
       </c>
       <c r="D25" t="n">
-        <v>47764.32926281547</v>
+        <v>46046.18792242642</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>477643.2926281547</v>
+        <v>460461.8792242642</v>
       </c>
     </row>
     <row r="26">
@@ -1984,19 +1984,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>319512.3743091052</v>
+        <v>313475.6614915221</v>
       </c>
       <c r="C26" t="n">
-        <v>41947.41470679557</v>
+        <v>34981.97684035349</v>
       </c>
       <c r="D26" t="n">
-        <v>25818.55635827863</v>
+        <v>24889.83130941969</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>258185.5635827863</v>
+        <v>248898.3130941969</v>
       </c>
     </row>
     <row r="27">
@@ -2006,19 +2006,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1597.561871545526</v>
+        <v>1567.378307457611</v>
       </c>
       <c r="C27" t="n">
-        <v>209.7370735339779</v>
+        <v>174.9098842017675</v>
       </c>
       <c r="D27" t="n">
-        <v>129.0927817913932</v>
+        <v>124.4491565470984</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1290.927817913932</v>
+        <v>1244.491565470985</v>
       </c>
     </row>
     <row r="28">
@@ -2028,19 +2028,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7987.80935772763</v>
+        <v>7836.891537288053</v>
       </c>
       <c r="C28" t="n">
-        <v>1048.685367669889</v>
+        <v>874.5494210088373</v>
       </c>
       <c r="D28" t="n">
-        <v>645.4639089569657</v>
+        <v>622.2457827354922</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6454.639089569657</v>
+        <v>6222.457827354921</v>
       </c>
     </row>
     <row r="29">
@@ -2050,19 +2050,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>191707.4245854631</v>
+        <v>188085.3968949132</v>
       </c>
       <c r="C29" t="n">
-        <v>25168.44882407734</v>
+        <v>20989.18610421209</v>
       </c>
       <c r="D29" t="n">
-        <v>15491.13381496718</v>
+        <v>14933.89878565181</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>154911.3381496717</v>
+        <v>149338.9878565181</v>
       </c>
     </row>
     <row r="30">
@@ -2072,19 +2072,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>47926.85614636578</v>
+        <v>47021.34922372831</v>
       </c>
       <c r="C30" t="n">
-        <v>6292.112206019335</v>
+        <v>5247.296526053023</v>
       </c>
       <c r="D30" t="n">
-        <v>3872.783453741794</v>
+        <v>3733.474696412953</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>38727.83453741793</v>
+        <v>37334.74696412952</v>
       </c>
     </row>
     <row r="31">
@@ -2094,19 +2094,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>431341.7053172921</v>
+        <v>423192.1430135549</v>
       </c>
       <c r="C31" t="n">
-        <v>56629.00985417402</v>
+        <v>47225.66873447721</v>
       </c>
       <c r="D31" t="n">
-        <v>34855.05108367615</v>
+        <v>33601.27226771658</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>348550.5108367616</v>
+        <v>336012.7226771658</v>
       </c>
     </row>
     <row r="32">
@@ -2116,19 +2116,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>95853.71229273155</v>
+        <v>94042.69844745661</v>
       </c>
       <c r="C32" t="n">
-        <v>12584.22441203867</v>
+        <v>10494.59305210605</v>
       </c>
       <c r="D32" t="n">
-        <v>7745.566907483589</v>
+        <v>7466.949392825906</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>77455.66907483587</v>
+        <v>74669.49392825903</v>
       </c>
     </row>
     <row r="33">
@@ -2426,13 +2426,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>753734.2000517715</v>
+        <v>801844.8936720971</v>
       </c>
       <c r="C2" t="n">
-        <v>1130601.300077657</v>
+        <v>1202767.340508146</v>
       </c>
       <c r="D2" t="n">
-        <v>5653006.500388286</v>
+        <v>6013836.702540729</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>801844.8936720971</v>
+        <v>801844.8936720972</v>
       </c>
       <c r="C3" t="n">
         <v>7216604.043048874</v>
@@ -2470,13 +2470,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>669215.1366880533</v>
+        <v>801844.8936720971</v>
       </c>
       <c r="C4" t="n">
-        <v>1003822.70503208</v>
+        <v>7216604.043048874</v>
       </c>
       <c r="D4" t="n">
-        <v>5019113.525160399</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2495,10 +2495,10 @@
         <v>245431.6119414594</v>
       </c>
       <c r="C5" t="n">
-        <v>2208884.507473134</v>
+        <v>368147.417912189</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1840737.089560946</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -2517,7 +2517,7 @@
         <v>245431.6119414594</v>
       </c>
       <c r="C6" t="n">
-        <v>2208884.507473134</v>
+        <v>2208884.507473135</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1599159.433417071</v>
+        <v>1568945.685765068</v>
       </c>
       <c r="C10" t="n">
-        <v>209946.8106075118</v>
+        <v>175084.7940859692</v>
       </c>
       <c r="D10" t="n">
-        <v>129221.8745731846</v>
+        <v>124573.6057036455</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1292218.745731845</v>
+        <v>1245736.057036455</v>
       </c>
     </row>
     <row r="11">
@@ -2624,19 +2624,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>255865.5093467314</v>
+        <v>251031.3097224109</v>
       </c>
       <c r="C11" t="n">
-        <v>33591.48969720189</v>
+        <v>28013.56705375507</v>
       </c>
       <c r="D11" t="n">
-        <v>20675.49993170953</v>
+        <v>19931.77691258329</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>206754.9993170953</v>
+        <v>199317.7691258328</v>
       </c>
     </row>
     <row r="12">
@@ -2646,19 +2646,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>127932.7546733657</v>
+        <v>125515.6548612054</v>
       </c>
       <c r="C12" t="n">
-        <v>16795.74484860095</v>
+        <v>14006.78352687754</v>
       </c>
       <c r="D12" t="n">
-        <v>10337.74996585476</v>
+        <v>9965.888456291643</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>103377.4996585476</v>
+        <v>99658.88456291641</v>
       </c>
     </row>
     <row r="13">
@@ -2668,19 +2668,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>207890.7263442193</v>
+        <v>203962.9391494589</v>
       </c>
       <c r="C13" t="n">
-        <v>27293.08537897654</v>
+        <v>22761.023231176</v>
       </c>
       <c r="D13" t="n">
-        <v>16798.84369451399</v>
+        <v>16194.56874147392</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>167988.4369451399</v>
+        <v>161945.6874147392</v>
       </c>
     </row>
     <row r="14">
@@ -2690,19 +2690,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>143924.3490075365</v>
+        <v>141205.1117188561</v>
       </c>
       <c r="C14" t="n">
-        <v>18895.21295467607</v>
+        <v>15757.63146773723</v>
       </c>
       <c r="D14" t="n">
-        <v>11629.96871158661</v>
+        <v>11211.6245133281</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>116299.6871158661</v>
+        <v>112116.245133281</v>
       </c>
     </row>
     <row r="15">
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>719621.7450376822</v>
+        <v>706025.5585942807</v>
       </c>
       <c r="C15" t="n">
-        <v>94476.06477338032</v>
+        <v>78788.15733868616</v>
       </c>
       <c r="D15" t="n">
-        <v>58149.84355793304</v>
+        <v>56058.12256664049</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>581498.4355793304</v>
+        <v>560581.2256664049</v>
       </c>
     </row>
     <row r="16">
@@ -2734,19 +2734,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1279327.546733657</v>
+        <v>1255156.548612055</v>
       </c>
       <c r="C16" t="n">
-        <v>167957.4484860095</v>
+        <v>140067.8352687754</v>
       </c>
       <c r="D16" t="n">
-        <v>103377.4996585476</v>
+        <v>99658.88456291644</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1033774.996585476</v>
+        <v>996588.8456291644</v>
       </c>
     </row>
     <row r="17">
@@ -2756,19 +2756,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>479747.8300251215</v>
+        <v>470683.7057295204</v>
       </c>
       <c r="C17" t="n">
-        <v>62984.04318225355</v>
+        <v>52525.43822579076</v>
       </c>
       <c r="D17" t="n">
-        <v>38766.56237195536</v>
+        <v>37372.08171109366</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>387665.6237195536</v>
+        <v>373720.8171109366</v>
       </c>
     </row>
     <row r="18">
@@ -2778,19 +2778,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>159915.9433417072</v>
+        <v>156894.5685765068</v>
       </c>
       <c r="C18" t="n">
-        <v>20994.68106075118</v>
+        <v>17508.47940859692</v>
       </c>
       <c r="D18" t="n">
-        <v>12922.18745731845</v>
+        <v>12457.36057036456</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>129221.8745731845</v>
+        <v>124573.6057036455</v>
       </c>
     </row>
     <row r="19">
@@ -2800,19 +2800,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>831562.9053768772</v>
+        <v>815851.7565978355</v>
       </c>
       <c r="C19" t="n">
-        <v>109172.3415159062</v>
+        <v>91044.09292470399</v>
       </c>
       <c r="D19" t="n">
-        <v>67195.37477805596</v>
+        <v>64778.27496589568</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>671953.7477805596</v>
+        <v>647782.7496589569</v>
       </c>
     </row>
     <row r="20">
@@ -2822,19 +2822,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15991.59433417072</v>
+        <v>15689.45685765068</v>
       </c>
       <c r="C20" t="n">
-        <v>2099.468106075118</v>
+        <v>1750.847940859692</v>
       </c>
       <c r="D20" t="n">
-        <v>1292.218745731846</v>
+        <v>1245.736057036455</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>12922.18745731845</v>
+        <v>12457.36057036455</v>
       </c>
     </row>
     <row r="21">
@@ -2844,19 +2844,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>431773.0470226093</v>
+        <v>423615.3351565684</v>
       </c>
       <c r="C21" t="n">
-        <v>56685.63886402819</v>
+        <v>47272.89440321169</v>
       </c>
       <c r="D21" t="n">
-        <v>34889.90613475983</v>
+        <v>33634.8735399843</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>348899.0613475983</v>
+        <v>336348.735399843</v>
       </c>
     </row>
     <row r="22">
@@ -2866,19 +2866,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>319831.8866834143</v>
+        <v>313789.1371530137</v>
       </c>
       <c r="C22" t="n">
-        <v>41989.36212150237</v>
+        <v>35016.95881719384</v>
       </c>
       <c r="D22" t="n">
-        <v>25844.37491463691</v>
+        <v>24914.72114072911</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>258443.7491463691</v>
+        <v>249147.2114072911</v>
       </c>
     </row>
     <row r="23">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>111941.160339195</v>
+        <v>109826.1980035548</v>
       </c>
       <c r="C23" t="n">
-        <v>14696.27674252583</v>
+        <v>12255.93558601785</v>
       </c>
       <c r="D23" t="n">
-        <v>9045.531220122919</v>
+        <v>8720.152399255188</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>90455.3122012292</v>
+        <v>87201.5239925519</v>
       </c>
     </row>
     <row r="24">
@@ -2910,19 +2910,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>703630.1507035116</v>
+        <v>690336.10173663</v>
       </c>
       <c r="C24" t="n">
-        <v>92376.5966673052</v>
+        <v>77037.30939782647</v>
       </c>
       <c r="D24" t="n">
-        <v>56857.6248122012</v>
+        <v>54812.38650960404</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>568576.248122012</v>
+        <v>548123.8650960404</v>
       </c>
     </row>
     <row r="25">
@@ -2932,19 +2932,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>591688.9903643165</v>
+        <v>580509.9037330752</v>
       </c>
       <c r="C25" t="n">
-        <v>77680.31992477938</v>
+        <v>64781.37381180862</v>
       </c>
       <c r="D25" t="n">
-        <v>47812.09359207829</v>
+        <v>46092.23411034885</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>478120.9359207828</v>
+        <v>460922.3411034885</v>
       </c>
     </row>
     <row r="26">
@@ -2954,19 +2954,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>319831.8866834143</v>
+        <v>313789.1371530137</v>
       </c>
       <c r="C26" t="n">
-        <v>41989.36212150237</v>
+        <v>35016.95881719384</v>
       </c>
       <c r="D26" t="n">
-        <v>25844.37491463691</v>
+        <v>24914.72114072911</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>258443.7491463691</v>
+        <v>249147.2114072911</v>
       </c>
     </row>
     <row r="27">
@@ -2976,19 +2976,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1599.159433417072</v>
+        <v>1568.945685765068</v>
       </c>
       <c r="C27" t="n">
-        <v>209.9468106075118</v>
+        <v>175.0847940859692</v>
       </c>
       <c r="D27" t="n">
-        <v>129.2218745731846</v>
+        <v>124.5736057036455</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1292.218745731846</v>
+        <v>1245.736057036455</v>
       </c>
     </row>
     <row r="28">
@@ -2998,19 +2998,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7995.797167085358</v>
+        <v>7844.72842882534</v>
       </c>
       <c r="C28" t="n">
-        <v>1049.734053037559</v>
+        <v>875.423970429846</v>
       </c>
       <c r="D28" t="n">
-        <v>646.1093728659228</v>
+        <v>622.8680285182277</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6461.093728659227</v>
+        <v>6228.680285182276</v>
       </c>
     </row>
     <row r="29">
@@ -3020,19 +3020,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>191899.1320100486</v>
+        <v>188273.4822918082</v>
       </c>
       <c r="C29" t="n">
-        <v>25193.61727290142</v>
+        <v>21010.17529031631</v>
       </c>
       <c r="D29" t="n">
-        <v>15506.62494878214</v>
+        <v>14948.83268443746</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>155066.2494878214</v>
+        <v>149488.3268443746</v>
       </c>
     </row>
     <row r="30">
@@ -3042,19 +3042,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>47974.78300251215</v>
+        <v>47068.37057295204</v>
       </c>
       <c r="C30" t="n">
-        <v>6298.404318225355</v>
+        <v>5252.543822579077</v>
       </c>
       <c r="D30" t="n">
-        <v>3876.656237195536</v>
+        <v>3737.208171109366</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>38766.56237195536</v>
+        <v>37372.08171109366</v>
       </c>
     </row>
     <row r="31">
@@ -3064,19 +3064,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>431773.0470226093</v>
+        <v>423615.3351565684</v>
       </c>
       <c r="C31" t="n">
-        <v>56685.63886402819</v>
+        <v>47272.89440321169</v>
       </c>
       <c r="D31" t="n">
-        <v>34889.90613475983</v>
+        <v>33634.8735399843</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>348899.0613475983</v>
+        <v>336348.735399843</v>
       </c>
     </row>
     <row r="32">
@@ -3086,19 +3086,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>95949.5660050243</v>
+        <v>94136.74114590409</v>
       </c>
       <c r="C32" t="n">
-        <v>12596.80863645071</v>
+        <v>10505.08764515815</v>
       </c>
       <c r="D32" t="n">
-        <v>7753.312474391072</v>
+        <v>7474.416342218732</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>77533.12474391072</v>
+        <v>74744.16342218732</v>
       </c>
     </row>
     <row r="33">
@@ -3396,10 +3396,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>802646.7385657692</v>
+        <v>802646.738565769</v>
       </c>
       <c r="C2" t="n">
-        <v>7223820.647091921</v>
+        <v>7223820.647091917</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>802646.738565769</v>
       </c>
       <c r="C3" t="n">
-        <v>7223820.647091915</v>
+        <v>7223820.647091921</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3443,7 +3443,7 @@
         <v>802646.738565769</v>
       </c>
       <c r="C4" t="n">
-        <v>7223820.647091921</v>
+        <v>7223820.647091923</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3465,7 +3465,7 @@
         <v>245677.0435534008</v>
       </c>
       <c r="C5" t="n">
-        <v>2211093.391980607</v>
+        <v>2211093.391980606</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3572,19 +3572,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1600758.592850488</v>
+        <v>1570514.631450833</v>
       </c>
       <c r="C10" t="n">
-        <v>210156.7574181193</v>
+        <v>175259.8788800551</v>
       </c>
       <c r="D10" t="n">
-        <v>129351.0964477577</v>
+        <v>124698.1793093491</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1293510.964477577</v>
+        <v>1246981.793093491</v>
       </c>
     </row>
     <row r="11">
@@ -3594,19 +3594,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>256121.3748560781</v>
+        <v>251282.3410321333</v>
       </c>
       <c r="C11" t="n">
-        <v>33625.08118689909</v>
+        <v>28041.58062080882</v>
       </c>
       <c r="D11" t="n">
-        <v>20696.17543164123</v>
+        <v>19951.70868949587</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>206961.7543164123</v>
+        <v>199517.0868949586</v>
       </c>
     </row>
     <row r="12">
@@ -3616,19 +3616,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>128060.6874280391</v>
+        <v>125641.1705160666</v>
       </c>
       <c r="C12" t="n">
-        <v>16812.54059344954</v>
+        <v>14020.79031040441</v>
       </c>
       <c r="D12" t="n">
-        <v>10348.08771582062</v>
+        <v>9975.854344747933</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>103480.8771582061</v>
+        <v>99758.5434474793</v>
       </c>
     </row>
     <row r="13">
@@ -3638,19 +3638,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208098.6170705635</v>
+        <v>204166.9020886083</v>
       </c>
       <c r="C13" t="n">
-        <v>27320.37846435551</v>
+        <v>22783.78425440717</v>
       </c>
       <c r="D13" t="n">
-        <v>16815.6425382085</v>
+        <v>16210.76331021539</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>168156.425382085</v>
+        <v>162107.6331021539</v>
       </c>
     </row>
     <row r="14">
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>144068.2733565439</v>
+        <v>141346.3168305749</v>
       </c>
       <c r="C14" t="n">
-        <v>18914.10816763073</v>
+        <v>15773.38909920496</v>
       </c>
       <c r="D14" t="n">
-        <v>11641.59868029819</v>
+        <v>11222.83613784142</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>116415.9868029819</v>
+        <v>112228.3613784142</v>
       </c>
     </row>
     <row r="15">
@@ -3682,19 +3682,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720341.3667827196</v>
+        <v>706731.5841528748</v>
       </c>
       <c r="C15" t="n">
-        <v>94570.54083815368</v>
+        <v>78866.94549602481</v>
       </c>
       <c r="D15" t="n">
-        <v>58207.99340149097</v>
+        <v>56114.18068920713</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>582079.9340149096</v>
+        <v>561141.8068920712</v>
       </c>
     </row>
     <row r="16">
@@ -3704,19 +3704,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1280606.874280391</v>
+        <v>1256411.705160666</v>
       </c>
       <c r="C16" t="n">
-        <v>168125.4059344954</v>
+        <v>140207.9031040441</v>
       </c>
       <c r="D16" t="n">
-        <v>103480.8771582062</v>
+        <v>99758.54344747933</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1034808.771582062</v>
+        <v>997585.4344747931</v>
       </c>
     </row>
     <row r="17">
@@ -3726,19 +3726,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>480227.5778551464</v>
+        <v>471154.3894352498</v>
       </c>
       <c r="C17" t="n">
-        <v>63047.02722543578</v>
+        <v>52577.96366401654</v>
       </c>
       <c r="D17" t="n">
-        <v>38805.32893432731</v>
+        <v>37409.45379280474</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>388053.2893432731</v>
+        <v>374094.5379280474</v>
       </c>
     </row>
     <row r="18">
@@ -3748,19 +3748,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>160075.8592850488</v>
+        <v>157051.4631450833</v>
       </c>
       <c r="C18" t="n">
-        <v>21015.67574181193</v>
+        <v>17525.98788800551</v>
       </c>
       <c r="D18" t="n">
-        <v>12935.10964477577</v>
+        <v>12469.81793093492</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>129351.0964477577</v>
+        <v>124698.1793093491</v>
       </c>
     </row>
     <row r="19">
@@ -3770,19 +3770,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>832394.4682822538</v>
+        <v>816667.6083544331</v>
       </c>
       <c r="C19" t="n">
-        <v>109281.513857422</v>
+        <v>91135.13701762867</v>
       </c>
       <c r="D19" t="n">
-        <v>67262.570152834</v>
+        <v>64843.05324086156</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>672625.70152834</v>
+        <v>648430.5324086155</v>
       </c>
     </row>
     <row r="20">
@@ -3792,19 +3792,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16007.58592850488</v>
+        <v>15705.14631450833</v>
       </c>
       <c r="C20" t="n">
-        <v>2101.567574181193</v>
+        <v>1752.598788800551</v>
       </c>
       <c r="D20" t="n">
-        <v>1293.510964477577</v>
+        <v>1246.981793093492</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>12935.10964477577</v>
+        <v>12469.81793093491</v>
       </c>
     </row>
     <row r="21">
@@ -3814,19 +3814,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>432204.8200696319</v>
+        <v>424038.9504917249</v>
       </c>
       <c r="C21" t="n">
-        <v>56742.32450289221</v>
+        <v>47320.16729761489</v>
       </c>
       <c r="D21" t="n">
-        <v>34924.79604089458</v>
+        <v>33668.50841352427</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>349247.9604089458</v>
+        <v>336685.0841352427</v>
       </c>
     </row>
     <row r="22">
@@ -3836,19 +3836,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>320151.7185700976</v>
+        <v>314102.9262901666</v>
       </c>
       <c r="C22" t="n">
-        <v>42031.35148362386</v>
+        <v>35051.97577601103</v>
       </c>
       <c r="D22" t="n">
-        <v>25870.21928955154</v>
+        <v>24939.63586186983</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>258702.1928955154</v>
+        <v>249396.3586186983</v>
       </c>
     </row>
     <row r="23">
@@ -3858,19 +3858,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>112053.1014995342</v>
+        <v>109936.0242015583</v>
       </c>
       <c r="C23" t="n">
-        <v>14710.97301926835</v>
+        <v>12268.19152160386</v>
       </c>
       <c r="D23" t="n">
-        <v>9054.576751343038</v>
+        <v>8728.87255165444</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>90545.76751343039</v>
+        <v>87288.72551654441</v>
       </c>
     </row>
     <row r="24">
@@ -3880,19 +3880,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>704333.7808542147</v>
+        <v>691026.4378383664</v>
       </c>
       <c r="C24" t="n">
-        <v>92468.97326397247</v>
+        <v>77114.34670722425</v>
       </c>
       <c r="D24" t="n">
-        <v>56914.48243701339</v>
+        <v>54867.19889611362</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>569144.8243701338</v>
+        <v>548671.9889611361</v>
       </c>
     </row>
     <row r="25">
@@ -3902,19 +3902,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>592280.6793546806</v>
+        <v>581090.4136368081</v>
       </c>
       <c r="C25" t="n">
-        <v>77758.00024470413</v>
+        <v>64846.1551856204</v>
       </c>
       <c r="D25" t="n">
-        <v>47859.90568567035</v>
+        <v>46138.32634445919</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>478599.0568567034</v>
+        <v>461383.2634445918</v>
       </c>
     </row>
     <row r="26">
@@ -3924,19 +3924,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>320151.7185700976</v>
+        <v>314102.9262901666</v>
       </c>
       <c r="C26" t="n">
-        <v>42031.35148362386</v>
+        <v>35051.97577601103</v>
       </c>
       <c r="D26" t="n">
-        <v>25870.21928955154</v>
+        <v>24939.63586186983</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>258702.1928955154</v>
+        <v>249396.3586186983</v>
       </c>
     </row>
     <row r="27">
@@ -3946,19 +3946,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1600.758592850488</v>
+        <v>1570.514631450833</v>
       </c>
       <c r="C27" t="n">
-        <v>210.1567574181193</v>
+        <v>175.2598788800551</v>
       </c>
       <c r="D27" t="n">
-        <v>129.3510964477577</v>
+        <v>124.6981793093492</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1293.510964477577</v>
+        <v>1246.981793093491</v>
       </c>
     </row>
     <row r="28">
@@ -3968,19 +3968,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8003.792964252441</v>
+        <v>7852.573157254164</v>
       </c>
       <c r="C28" t="n">
-        <v>1050.783787090596</v>
+        <v>876.2993944002757</v>
       </c>
       <c r="D28" t="n">
-        <v>646.7554822387885</v>
+        <v>623.4908965467458</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6467.554822387884</v>
+        <v>6234.908965467456</v>
       </c>
     </row>
     <row r="29">
@@ -3990,19 +3990,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>192091.0311420586</v>
+        <v>188461.7557740999</v>
       </c>
       <c r="C29" t="n">
-        <v>25218.81089017431</v>
+        <v>21031.18546560662</v>
       </c>
       <c r="D29" t="n">
-        <v>15522.13157373092</v>
+        <v>14963.7815171219</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>155221.3157373092</v>
+        <v>149637.815171219</v>
       </c>
     </row>
     <row r="30">
@@ -4012,19 +4012,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48022.75778551464</v>
+        <v>47115.43894352498</v>
       </c>
       <c r="C30" t="n">
-        <v>6304.702722543579</v>
+        <v>5257.796366401654</v>
       </c>
       <c r="D30" t="n">
-        <v>3880.532893432731</v>
+        <v>3740.945379280475</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>38805.32893432731</v>
+        <v>37409.45379280474</v>
       </c>
     </row>
     <row r="31">
@@ -4034,19 +4034,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>432204.8200696319</v>
+        <v>424038.9504917249</v>
       </c>
       <c r="C31" t="n">
-        <v>56742.32450289221</v>
+        <v>47320.16729761489</v>
       </c>
       <c r="D31" t="n">
-        <v>34924.79604089458</v>
+        <v>33668.50841352427</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>349247.9604089458</v>
+        <v>336685.0841352427</v>
       </c>
     </row>
     <row r="32">
@@ -4056,19 +4056,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96045.51557102929</v>
+        <v>94230.87788704997</v>
       </c>
       <c r="C32" t="n">
-        <v>12609.40544508716</v>
+        <v>10515.59273280331</v>
       </c>
       <c r="D32" t="n">
-        <v>7761.065786865462</v>
+        <v>7481.89075856095</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>77610.65786865461</v>
+        <v>74818.90758560949</v>
       </c>
     </row>
     <row r="33">
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>803449.3853043349</v>
+        <v>803449.3853043348</v>
       </c>
       <c r="C2" t="n">
         <v>7231044.467739013</v>
@@ -4391,7 +4391,7 @@
         <v>803449.3853043348</v>
       </c>
       <c r="C3" t="n">
-        <v>7231044.467739014</v>
+        <v>7231044.467739013</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4413,7 +4413,7 @@
         <v>803449.3853043348</v>
       </c>
       <c r="C4" t="n">
-        <v>7231044.467739013</v>
+        <v>7231044.467739014</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4542,19 +4542,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1602359.351443339</v>
+        <v>1572085.146082284</v>
       </c>
       <c r="C10" t="n">
-        <v>210366.9141755374</v>
+        <v>175435.1387589352</v>
       </c>
       <c r="D10" t="n">
-        <v>129480.4475442054</v>
+        <v>124822.8774886585</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1294804.475442054</v>
+        <v>1248228.774886585</v>
       </c>
     </row>
     <row r="11">
@@ -4564,19 +4564,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>256377.4962309342</v>
+        <v>251533.6233731653</v>
       </c>
       <c r="C11" t="n">
-        <v>33658.70626808598</v>
+        <v>28069.62220142963</v>
       </c>
       <c r="D11" t="n">
-        <v>20716.87160707287</v>
+        <v>19971.66039818536</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>207168.7160707287</v>
+        <v>199716.6039818536</v>
       </c>
     </row>
     <row r="12">
@@ -4586,19 +4586,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>128188.7481154671</v>
+        <v>125766.8116865827</v>
       </c>
       <c r="C12" t="n">
-        <v>16829.35313404299</v>
+        <v>14034.81110071481</v>
       </c>
       <c r="D12" t="n">
-        <v>10358.43580353643</v>
+        <v>9985.830199092679</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>103584.3580353643</v>
+        <v>99858.30199092678</v>
       </c>
     </row>
     <row r="13">
@@ -4608,19 +4608,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208306.715687634</v>
+        <v>204371.0689906969</v>
       </c>
       <c r="C13" t="n">
-        <v>27347.69884281986</v>
+        <v>22806.56803866157</v>
       </c>
       <c r="D13" t="n">
-        <v>16832.45818074671</v>
+        <v>16226.97407352561</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>168324.5818074671</v>
+        <v>162269.740735256</v>
       </c>
     </row>
     <row r="14">
@@ -4630,19 +4630,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>144212.3416299005</v>
+        <v>141487.6631474055</v>
       </c>
       <c r="C14" t="n">
-        <v>18933.02227579836</v>
+        <v>15789.16248830417</v>
       </c>
       <c r="D14" t="n">
-        <v>11653.24027897849</v>
+        <v>11234.05897397926</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>116532.4027897849</v>
+        <v>112340.5897397926</v>
       </c>
     </row>
     <row r="15">
@@ -4652,19 +4652,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>721061.7081495024</v>
+        <v>707438.3157370276</v>
       </c>
       <c r="C15" t="n">
-        <v>94665.11137899183</v>
+        <v>78945.81244152083</v>
       </c>
       <c r="D15" t="n">
-        <v>58266.20139489245</v>
+        <v>56170.29486989632</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>582662.0139489245</v>
+        <v>561702.9486989633</v>
       </c>
     </row>
     <row r="16">
@@ -4674,19 +4674,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1281887.481154671</v>
+        <v>1257668.116865827</v>
       </c>
       <c r="C16" t="n">
-        <v>168293.5313404299</v>
+        <v>140348.1110071481</v>
       </c>
       <c r="D16" t="n">
-        <v>103584.3580353643</v>
+        <v>99858.30199092679</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1035843.580353644</v>
+        <v>998583.0199092678</v>
       </c>
     </row>
     <row r="17">
@@ -4696,19 +4696,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>480707.8054330015</v>
+        <v>471625.543824685</v>
       </c>
       <c r="C17" t="n">
-        <v>63110.07425266121</v>
+        <v>52630.54162768055</v>
       </c>
       <c r="D17" t="n">
-        <v>38844.13426326163</v>
+        <v>37446.86324659755</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>388441.3426326163</v>
+        <v>374468.6324659754</v>
       </c>
     </row>
     <row r="18">
@@ -4718,19 +4718,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>160235.9351443338</v>
+        <v>157208.5146082283</v>
       </c>
       <c r="C18" t="n">
-        <v>21036.69141755374</v>
+        <v>17543.51387589352</v>
       </c>
       <c r="D18" t="n">
-        <v>12948.04475442054</v>
+        <v>12482.28774886585</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>129480.4475442054</v>
+        <v>124822.8774886585</v>
       </c>
     </row>
     <row r="19">
@@ -4740,19 +4740,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>833226.8627505362</v>
+        <v>817484.2759627876</v>
       </c>
       <c r="C19" t="n">
-        <v>109390.7953712795</v>
+        <v>91226.2721546463</v>
       </c>
       <c r="D19" t="n">
-        <v>67329.83272298684</v>
+        <v>64907.89629410242</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>673298.3272298683</v>
+        <v>649078.9629410241</v>
       </c>
     </row>
     <row r="20">
@@ -4762,19 +4762,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16023.59351443339</v>
+        <v>15720.85146082283</v>
       </c>
       <c r="C20" t="n">
-        <v>2103.669141755374</v>
+        <v>1754.351387589352</v>
       </c>
       <c r="D20" t="n">
-        <v>1294.804475442054</v>
+        <v>1248.228774886585</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>12948.04475442054</v>
+        <v>12482.28774886585</v>
       </c>
     </row>
     <row r="21">
@@ -4784,19 +4784,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>432637.0248897015</v>
+        <v>424462.9894422166</v>
       </c>
       <c r="C21" t="n">
-        <v>56799.0668273951</v>
+        <v>47367.4874649125</v>
       </c>
       <c r="D21" t="n">
-        <v>34959.72083693547</v>
+        <v>33702.1769219378</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>349597.2083693547</v>
+        <v>337021.7692193779</v>
       </c>
     </row>
     <row r="22">
@@ -4806,19 +4806,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>320471.8702886677</v>
+        <v>314417.0292164567</v>
       </c>
       <c r="C22" t="n">
-        <v>42073.38283510748</v>
+        <v>35087.02775178703</v>
       </c>
       <c r="D22" t="n">
-        <v>25896.08950884109</v>
+        <v>24964.5754977317</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>258960.8950884109</v>
+        <v>249645.7549773169</v>
       </c>
     </row>
     <row r="23">
@@ -4828,19 +4828,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>112165.1546010337</v>
+        <v>110045.9602257598</v>
       </c>
       <c r="C23" t="n">
-        <v>14725.68399228762</v>
+        <v>12280.45971312546</v>
       </c>
       <c r="D23" t="n">
-        <v>9063.63132809438</v>
+        <v>8737.601424206094</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>90636.3132809438</v>
+        <v>87376.01424206092</v>
       </c>
     </row>
     <row r="24">
@@ -4850,19 +4850,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>705038.1146350689</v>
+        <v>691717.4642762047</v>
       </c>
       <c r="C24" t="n">
-        <v>92561.44223723645</v>
+        <v>77191.46105393147</v>
       </c>
       <c r="D24" t="n">
-        <v>56971.3969194504</v>
+        <v>54922.06609500974</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>569713.969194504</v>
+        <v>549220.6609500973</v>
       </c>
     </row>
     <row r="25">
@@ -4872,19 +4872,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>592872.9600340353</v>
+        <v>581671.5040504448</v>
       </c>
       <c r="C25" t="n">
-        <v>77835.75824494883</v>
+        <v>64911.00134080601</v>
       </c>
       <c r="D25" t="n">
-        <v>47907.76559135601</v>
+        <v>46184.46467080364</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>479077.6559135601</v>
+        <v>461844.6467080363</v>
       </c>
     </row>
     <row r="26">
@@ -4894,19 +4894,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>320471.8702886677</v>
+        <v>314417.0292164567</v>
       </c>
       <c r="C26" t="n">
-        <v>42073.38283510748</v>
+        <v>35087.02775178703</v>
       </c>
       <c r="D26" t="n">
-        <v>25896.08950884109</v>
+        <v>24964.5754977317</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>258960.8950884109</v>
+        <v>249645.7549773169</v>
       </c>
     </row>
     <row r="27">
@@ -4916,19 +4916,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1602.359351443338</v>
+        <v>1572.085146082283</v>
       </c>
       <c r="C27" t="n">
-        <v>210.3669141755374</v>
+        <v>175.4351387589352</v>
       </c>
       <c r="D27" t="n">
-        <v>129.4804475442054</v>
+        <v>124.8228774886585</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1294.804475442054</v>
+        <v>1248.228774886585</v>
       </c>
     </row>
     <row r="28">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8011.796757216693</v>
+        <v>7860.425730411417</v>
       </c>
       <c r="C28" t="n">
-        <v>1051.834570877687</v>
+        <v>877.1756937946759</v>
       </c>
       <c r="D28" t="n">
-        <v>647.4022377210272</v>
+        <v>624.1143874432925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6474.022377210272</v>
+        <v>6241.143874432923</v>
       </c>
     </row>
     <row r="29">
@@ -4960,19 +4960,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>192283.1221732006</v>
+        <v>188650.217529874</v>
       </c>
       <c r="C29" t="n">
-        <v>25244.02970106449</v>
+        <v>21052.21665107222</v>
       </c>
       <c r="D29" t="n">
-        <v>15537.65370530465</v>
+        <v>14978.74529863902</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>155376.5370530465</v>
+        <v>149787.4529863902</v>
       </c>
     </row>
     <row r="30">
@@ -4982,19 +4982,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48070.78054330016</v>
+        <v>47162.5543824685</v>
       </c>
       <c r="C30" t="n">
-        <v>6311.007425266122</v>
+        <v>5263.054162768055</v>
       </c>
       <c r="D30" t="n">
-        <v>3884.413426326163</v>
+        <v>3744.686324659755</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>38844.13426326163</v>
+        <v>37446.86324659755</v>
       </c>
     </row>
     <row r="31">
@@ -5004,19 +5004,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>432637.0248897015</v>
+        <v>424462.9894422166</v>
       </c>
       <c r="C31" t="n">
-        <v>56799.0668273951</v>
+        <v>47367.4874649125</v>
       </c>
       <c r="D31" t="n">
-        <v>34959.72083693547</v>
+        <v>33702.1769219378</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>349597.2083693547</v>
+        <v>337021.7692193779</v>
       </c>
     </row>
     <row r="32">
@@ -5026,19 +5026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96141.56108660031</v>
+        <v>94325.108764937</v>
       </c>
       <c r="C32" t="n">
-        <v>12622.01485053224</v>
+        <v>10526.10832553611</v>
       </c>
       <c r="D32" t="n">
-        <v>7768.826852652326</v>
+        <v>7489.37264931951</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>77688.26852652326</v>
+        <v>74893.72649319509</v>
       </c>
     </row>
     <row r="33">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>804252.8346896393</v>
+        <v>804252.8346896392</v>
       </c>
       <c r="C2" t="n">
-        <v>7238275.512206753</v>
+        <v>7238275.512206754</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -5361,7 +5361,7 @@
         <v>804252.8346896392</v>
       </c>
       <c r="C3" t="n">
-        <v>7238275.512206754</v>
+        <v>7238275.512206753</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -5383,7 +5383,7 @@
         <v>804252.8346896392</v>
       </c>
       <c r="C4" t="n">
-        <v>7238275.512206753</v>
+        <v>7238275.512206754</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -5512,19 +5512,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1603961.710794782</v>
+        <v>1573657.231228366</v>
       </c>
       <c r="C10" t="n">
-        <v>210577.2810897129</v>
+        <v>175610.5738976941</v>
       </c>
       <c r="D10" t="n">
-        <v>129609.9279917496</v>
+        <v>124947.7003661471</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1296099.279917496</v>
+        <v>1249477.003661471</v>
       </c>
     </row>
     <row r="11">
@@ -5534,19 +5534,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>256633.8737271651</v>
+        <v>251785.1569965385</v>
       </c>
       <c r="C11" t="n">
-        <v>33692.36497435407</v>
+        <v>28097.69182363106</v>
       </c>
       <c r="D11" t="n">
-        <v>20737.58847867994</v>
+        <v>19991.63205858354</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>207375.8847867994</v>
+        <v>199916.3205858354</v>
       </c>
     </row>
     <row r="12">
@@ -5556,19 +5556,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>128316.9368635825</v>
+        <v>125892.5784982693</v>
       </c>
       <c r="C12" t="n">
-        <v>16846.18248717703</v>
+        <v>14048.84591181553</v>
       </c>
       <c r="D12" t="n">
-        <v>10368.79423933997</v>
+        <v>9995.816029291771</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>103687.9423933997</v>
+        <v>99958.1602929177</v>
       </c>
     </row>
     <row r="13">
@@ -5578,19 +5578,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208515.0224033216</v>
+        <v>204575.4400596876</v>
       </c>
       <c r="C13" t="n">
-        <v>27375.04654166268</v>
+        <v>22829.37460670024</v>
       </c>
       <c r="D13" t="n">
-        <v>16849.29063892745</v>
+        <v>16243.20104759913</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>168492.9063892746</v>
+        <v>162432.0104759913</v>
       </c>
     </row>
     <row r="14">
@@ -5600,19 +5600,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>144356.5539715304</v>
+        <v>141629.1508105529</v>
       </c>
       <c r="C14" t="n">
-        <v>18951.95529807416</v>
+        <v>15804.95165079247</v>
       </c>
       <c r="D14" t="n">
-        <v>11664.89351925747</v>
+        <v>11245.29303295324</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>116648.9351925747</v>
+        <v>112452.9303295324</v>
       </c>
     </row>
     <row r="15">
@@ -5622,19 +5622,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>721782.7698576519</v>
+        <v>708145.7540527646</v>
       </c>
       <c r="C15" t="n">
-        <v>94759.77649037082</v>
+        <v>79024.75825396235</v>
       </c>
       <c r="D15" t="n">
-        <v>58324.46759628734</v>
+        <v>56226.46516476622</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>583244.6759628734</v>
+        <v>562264.6516476622</v>
       </c>
     </row>
     <row r="16">
@@ -5644,19 +5644,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1283169.368635825</v>
+        <v>1258925.784982693</v>
       </c>
       <c r="C16" t="n">
-        <v>168461.8248717703</v>
+        <v>140488.4591181553</v>
       </c>
       <c r="D16" t="n">
-        <v>103687.9423933997</v>
+        <v>99958.16029291772</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1036879.423933997</v>
+        <v>999581.6029291772</v>
       </c>
     </row>
     <row r="17">
@@ -5666,19 +5666,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>481188.5132384345</v>
+        <v>472097.1693685097</v>
       </c>
       <c r="C17" t="n">
-        <v>63173.18432691387</v>
+        <v>52683.17216930823</v>
       </c>
       <c r="D17" t="n">
-        <v>38882.97839752489</v>
+        <v>37484.31010984414</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>388829.7839752489</v>
+        <v>374843.1010984414</v>
       </c>
     </row>
     <row r="18">
@@ -5688,19 +5688,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>160396.1710794782</v>
+        <v>157365.7231228366</v>
       </c>
       <c r="C18" t="n">
-        <v>21057.72810897129</v>
+        <v>17561.05738976941</v>
       </c>
       <c r="D18" t="n">
-        <v>12960.99279917496</v>
+        <v>12494.77003661471</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>129609.9279917497</v>
+        <v>124947.7003661472</v>
       </c>
     </row>
     <row r="19">
@@ -5710,19 +5710,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>834060.0896132865</v>
+        <v>818301.7602387503</v>
       </c>
       <c r="C19" t="n">
-        <v>109500.1861666507</v>
+        <v>91317.49842680094</v>
       </c>
       <c r="D19" t="n">
-        <v>67397.16255570982</v>
+        <v>64972.80419039652</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>673971.6255570983</v>
+        <v>649728.0419039652</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16039.61710794782</v>
+        <v>15736.57231228366</v>
       </c>
       <c r="C20" t="n">
-        <v>2105.772810897129</v>
+        <v>1756.105738976941</v>
       </c>
       <c r="D20" t="n">
-        <v>1296.099279917496</v>
+        <v>1249.477003661471</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>12960.99279917496</v>
+        <v>12494.77003661471</v>
       </c>
     </row>
     <row r="21">
@@ -5754,19 +5754,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>433069.6619145911</v>
+        <v>424887.4524316587</v>
       </c>
       <c r="C21" t="n">
-        <v>56855.86589422249</v>
+        <v>47414.85495237741</v>
       </c>
       <c r="D21" t="n">
-        <v>34994.6805577724</v>
+        <v>33735.87909885972</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>349946.805577724</v>
+        <v>337358.7909885973</v>
       </c>
     </row>
     <row r="22">
@@ -5776,19 +5776,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>320792.3421589563</v>
+        <v>314731.4462456732</v>
       </c>
       <c r="C22" t="n">
-        <v>42115.45621794258</v>
+        <v>35122.11477953882</v>
       </c>
       <c r="D22" t="n">
-        <v>25921.98559834993</v>
+        <v>24989.54007322943</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>259219.8559834993</v>
+        <v>249895.4007322943</v>
       </c>
     </row>
     <row r="23">
@@ -5798,19 +5798,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>112277.3197556347</v>
+        <v>110156.0061859856</v>
       </c>
       <c r="C23" t="n">
-        <v>14740.40967627991</v>
+        <v>12292.74017283859</v>
       </c>
       <c r="D23" t="n">
-        <v>9072.694959422475</v>
+        <v>8746.339025630301</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>90726.94959422476</v>
+        <v>87463.39025630301</v>
       </c>
     </row>
     <row r="24">
@@ -5820,19 +5820,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>705743.1527497041</v>
+        <v>692409.1817404809</v>
       </c>
       <c r="C24" t="n">
-        <v>92654.0036794737</v>
+        <v>77268.65251498541</v>
       </c>
       <c r="D24" t="n">
-        <v>57028.36831636984</v>
+        <v>54976.98816110475</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>570283.6831636984</v>
+        <v>549769.8816110474</v>
       </c>
     </row>
     <row r="25">
@@ -5842,19 +5842,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>593465.8329940692</v>
+        <v>582253.1755544953</v>
       </c>
       <c r="C25" t="n">
-        <v>77913.59400319376</v>
+        <v>64975.91234214682</v>
       </c>
       <c r="D25" t="n">
-        <v>47955.67335694737</v>
+        <v>46230.64913547444</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>479556.7335694736</v>
+        <v>462306.4913547442</v>
       </c>
     </row>
     <row r="26">
@@ -5864,19 +5864,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>320792.3421589563</v>
+        <v>314731.4462456732</v>
       </c>
       <c r="C26" t="n">
-        <v>42115.45621794258</v>
+        <v>35122.11477953882</v>
       </c>
       <c r="D26" t="n">
-        <v>25921.98559834993</v>
+        <v>24989.54007322943</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>259219.8559834993</v>
+        <v>249895.4007322943</v>
       </c>
     </row>
     <row r="27">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1603.961710794782</v>
+        <v>1573.657231228366</v>
       </c>
       <c r="C27" t="n">
-        <v>210.5772810897129</v>
+        <v>175.6105738976941</v>
       </c>
       <c r="D27" t="n">
-        <v>129.6099279917496</v>
+        <v>124.9477003661471</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1296.099279917496</v>
+        <v>1249.477003661471</v>
       </c>
     </row>
     <row r="28">
@@ -5908,19 +5908,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8019.808553973909</v>
+        <v>7868.286156141829</v>
       </c>
       <c r="C28" t="n">
-        <v>1052.886405448565</v>
+        <v>878.0528694884706</v>
       </c>
       <c r="D28" t="n">
-        <v>648.0496399587482</v>
+        <v>624.7385018307357</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6480.496399587481</v>
+        <v>6247.385018307356</v>
       </c>
     </row>
     <row r="29">
@@ -5930,19 +5930,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>192475.4052953738</v>
+        <v>188838.8677474039</v>
       </c>
       <c r="C29" t="n">
-        <v>25269.27373076555</v>
+        <v>21073.26886772329</v>
       </c>
       <c r="D29" t="n">
-        <v>15553.19135900996</v>
+        <v>14993.72404393766</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>155531.9135900995</v>
+        <v>149937.2404393766</v>
       </c>
     </row>
     <row r="30">
@@ -5952,19 +5952,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48118.85132384345</v>
+        <v>47209.71693685097</v>
       </c>
       <c r="C30" t="n">
-        <v>6317.318432691387</v>
+        <v>5268.317216930823</v>
       </c>
       <c r="D30" t="n">
-        <v>3888.297839752489</v>
+        <v>3748.431010984415</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>38882.97839752489</v>
+        <v>37484.31010984414</v>
       </c>
     </row>
     <row r="31">
@@ -5974,19 +5974,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>433069.6619145911</v>
+        <v>424887.4524316587</v>
       </c>
       <c r="C31" t="n">
-        <v>56855.86589422249</v>
+        <v>47414.85495237741</v>
       </c>
       <c r="D31" t="n">
-        <v>34994.6805577724</v>
+        <v>33735.87909885972</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>349946.805577724</v>
+        <v>337358.7909885973</v>
       </c>
     </row>
     <row r="32">
@@ -5996,19 +5996,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96237.70264768691</v>
+        <v>94419.43387370194</v>
       </c>
       <c r="C32" t="n">
-        <v>12634.63686538277</v>
+        <v>10536.63443386165</v>
       </c>
       <c r="D32" t="n">
-        <v>7776.595679504979</v>
+        <v>7496.862021968829</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>77765.95679504977</v>
+        <v>74968.62021968828</v>
       </c>
     </row>
     <row r="33">
@@ -6309,7 +6309,7 @@
         <v>805057.0875243287</v>
       </c>
       <c r="C2" t="n">
-        <v>7245513.787718958</v>
+        <v>7245513.787718959</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -6331,7 +6331,7 @@
         <v>805057.0875243287</v>
       </c>
       <c r="C3" t="n">
-        <v>7245513.787718958</v>
+        <v>7245513.787718959</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6353,7 +6353,7 @@
         <v>805057.0875243287</v>
       </c>
       <c r="C4" t="n">
-        <v>7245513.787718958</v>
+        <v>7245513.787718959</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -6482,19 +6482,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1605565.672505576</v>
+        <v>1575230.888459594</v>
       </c>
       <c r="C10" t="n">
-        <v>210787.8583708026</v>
+        <v>175786.1844715918</v>
       </c>
       <c r="D10" t="n">
-        <v>129739.5379197414</v>
+        <v>125072.6480665133</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1297395.379197414</v>
+        <v>1250726.480665133</v>
       </c>
     </row>
     <row r="11">
@@ -6504,19 +6504,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>256890.5076008922</v>
+        <v>252036.942153535</v>
       </c>
       <c r="C11" t="n">
-        <v>33726.05733932841</v>
+        <v>28125.78951545469</v>
       </c>
       <c r="D11" t="n">
-        <v>20758.32606715862</v>
+        <v>20011.62369064212</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>207583.2606715862</v>
+        <v>200116.2369064212</v>
       </c>
     </row>
     <row r="12">
@@ -6526,19 +6526,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>128445.2538004461</v>
+        <v>126018.4710767675</v>
       </c>
       <c r="C12" t="n">
-        <v>16863.02866966421</v>
+        <v>14062.89475772734</v>
       </c>
       <c r="D12" t="n">
-        <v>10379.16303357931</v>
+        <v>10005.81184532106</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>103791.6303357931</v>
+        <v>100058.1184532106</v>
       </c>
     </row>
     <row r="13">
@@ -6548,19 +6548,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208723.537425725</v>
+        <v>204780.0154997472</v>
       </c>
       <c r="C13" t="n">
-        <v>27402.42158820434</v>
+        <v>22852.20398130694</v>
       </c>
       <c r="D13" t="n">
-        <v>16866.13992956638</v>
+        <v>16259.44424864673</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>168661.3992956638</v>
+        <v>162594.4424864672</v>
       </c>
     </row>
     <row r="14">
@@ -6570,19 +6570,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>144500.9105255019</v>
+        <v>141770.7799613634</v>
       </c>
       <c r="C14" t="n">
-        <v>18970.90725337224</v>
+        <v>15820.75660244326</v>
       </c>
       <c r="D14" t="n">
-        <v>11676.55841277672</v>
+        <v>11256.5383259862</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>116765.5841277673</v>
+        <v>112565.383259862</v>
       </c>
     </row>
     <row r="15">
@@ -6592,19 +6592,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>722504.5526275095</v>
+        <v>708853.8998068173</v>
       </c>
       <c r="C15" t="n">
-        <v>94854.53626686118</v>
+        <v>79103.78301221631</v>
       </c>
       <c r="D15" t="n">
-        <v>58382.79206388362</v>
+        <v>56282.69162993097</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>583827.9206388362</v>
+        <v>562826.9162993098</v>
       </c>
     </row>
     <row r="16">
@@ -6614,19 +6614,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1284452.538004461</v>
+        <v>1260184.710767675</v>
       </c>
       <c r="C16" t="n">
-        <v>168630.2866966421</v>
+        <v>140628.9475772734</v>
       </c>
       <c r="D16" t="n">
-        <v>103791.6303357931</v>
+        <v>100058.1184532106</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1037916.303357931</v>
+        <v>1000581.184532106</v>
       </c>
     </row>
     <row r="17">
@@ -6636,19 +6636,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>481669.701751673</v>
+        <v>472569.2665378782</v>
       </c>
       <c r="C17" t="n">
-        <v>63236.35751124079</v>
+        <v>52735.85534147754</v>
       </c>
       <c r="D17" t="n">
-        <v>38921.86137592242</v>
+        <v>37521.79441995399</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>389218.6137592241</v>
+        <v>375217.9441995398</v>
       </c>
     </row>
     <row r="18">
@@ -6658,19 +6658,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>160556.5672505576</v>
+        <v>157523.0888459594</v>
       </c>
       <c r="C18" t="n">
-        <v>21078.78583708026</v>
+        <v>17578.61844715918</v>
       </c>
       <c r="D18" t="n">
-        <v>12973.95379197414</v>
+        <v>12507.26480665133</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>129739.5379197414</v>
+        <v>125072.6480665132</v>
       </c>
     </row>
     <row r="19">
@@ -6680,19 +6680,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>834894.1497028999</v>
+        <v>819120.0619989889</v>
       </c>
       <c r="C19" t="n">
-        <v>109609.6863528174</v>
+        <v>91408.81592522774</v>
       </c>
       <c r="D19" t="n">
-        <v>67464.55971826552</v>
+        <v>65037.77699458691</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>674645.5971826551</v>
+        <v>650377.769945869</v>
       </c>
     </row>
     <row r="20">
@@ -6702,19 +6702,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16055.65672505576</v>
+        <v>15752.30888459594</v>
       </c>
       <c r="C20" t="n">
-        <v>2107.878583708026</v>
+        <v>1757.861844715918</v>
       </c>
       <c r="D20" t="n">
-        <v>1297.395379197414</v>
+        <v>1250.726480665133</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>12973.95379197414</v>
+        <v>12507.26480665132</v>
       </c>
     </row>
     <row r="21">
@@ -6724,19 +6724,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>433502.7315765056</v>
+        <v>425312.3398840904</v>
       </c>
       <c r="C21" t="n">
-        <v>56912.72176011671</v>
+        <v>47462.26980732979</v>
       </c>
       <c r="D21" t="n">
-        <v>35029.67523833017</v>
+        <v>33769.61497795859</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>350296.7523833017</v>
+        <v>337696.1497795858</v>
       </c>
     </row>
     <row r="22">
@@ -6746,19 +6746,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>321113.1345011152</v>
+        <v>315046.1776919188</v>
       </c>
       <c r="C22" t="n">
-        <v>42157.57167416052</v>
+        <v>35157.23689431835</v>
       </c>
       <c r="D22" t="n">
-        <v>25947.90758394828</v>
+        <v>25014.52961330266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>259479.0758394827</v>
+        <v>250145.2961330265</v>
       </c>
     </row>
     <row r="23">
@@ -6768,19 +6768,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>112389.5970753904</v>
+        <v>110266.1621921716</v>
       </c>
       <c r="C23" t="n">
-        <v>14755.15008595618</v>
+        <v>12305.03291301143</v>
       </c>
       <c r="D23" t="n">
-        <v>9081.767654381898</v>
+        <v>8755.08536465593</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>90817.67654381898</v>
+        <v>87550.85364655929</v>
       </c>
     </row>
     <row r="24">
@@ -6790,19 +6790,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>706448.8959024537</v>
+        <v>693101.5909222213</v>
       </c>
       <c r="C24" t="n">
-        <v>92746.65768315314</v>
+        <v>77345.92116750039</v>
       </c>
       <c r="D24" t="n">
-        <v>57085.39668468621</v>
+        <v>55031.96514926584</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>570853.9668468621</v>
+        <v>550319.6514926583</v>
       </c>
     </row>
     <row r="25">
@@ -6812,19 +6812,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>594059.2988270633</v>
+        <v>582835.4287300498</v>
       </c>
       <c r="C25" t="n">
-        <v>77991.50759719696</v>
+        <v>65040.88825448896</v>
       </c>
       <c r="D25" t="n">
-        <v>48003.62903030431</v>
+        <v>46276.87978460991</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>480036.2903030431</v>
+        <v>462768.7978460991</v>
       </c>
     </row>
     <row r="26">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>321113.1345011152</v>
+        <v>315046.1776919188</v>
       </c>
       <c r="C26" t="n">
-        <v>42157.57167416052</v>
+        <v>35157.23689431835</v>
       </c>
       <c r="D26" t="n">
-        <v>25947.90758394828</v>
+        <v>25014.52961330266</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>259479.0758394827</v>
+        <v>250145.2961330265</v>
       </c>
     </row>
     <row r="27">
@@ -6856,19 +6856,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1605.565672505577</v>
+        <v>1575.230888459594</v>
       </c>
       <c r="C27" t="n">
-        <v>210.7878583708026</v>
+        <v>175.7861844715918</v>
       </c>
       <c r="D27" t="n">
-        <v>129.7395379197414</v>
+        <v>125.0726480665133</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1297.395379197414</v>
+        <v>1250.726480665133</v>
       </c>
     </row>
     <row r="28">
@@ -6878,19 +6878,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8027.828362527882</v>
+        <v>7876.15444229797</v>
       </c>
       <c r="C28" t="n">
-        <v>1053.939291854013</v>
+        <v>878.9309223579589</v>
       </c>
       <c r="D28" t="n">
-        <v>648.6976895987068</v>
+        <v>625.3632403325663</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6486.976895987069</v>
+        <v>6253.632403325662</v>
       </c>
     </row>
     <row r="29">
@@ -6900,19 +6900,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>192667.8807006692</v>
+        <v>189027.7066151513</v>
       </c>
       <c r="C29" t="n">
-        <v>25294.54300449631</v>
+        <v>21094.34213659101</v>
       </c>
       <c r="D29" t="n">
-        <v>15568.74455036897</v>
+        <v>15008.71776798159</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>155687.4455036896</v>
+        <v>150087.1776798159</v>
       </c>
     </row>
     <row r="30">
@@ -6922,19 +6922,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48166.97017516729</v>
+        <v>47256.92665378781</v>
       </c>
       <c r="C30" t="n">
-        <v>6323.635751124079</v>
+        <v>5273.585534147754</v>
       </c>
       <c r="D30" t="n">
-        <v>3892.186137592242</v>
+        <v>3752.179441995399</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>38921.86137592241</v>
+        <v>37521.79441995398</v>
       </c>
     </row>
     <row r="31">
@@ -6944,19 +6944,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>433502.7315765056</v>
+        <v>425312.3398840904</v>
       </c>
       <c r="C31" t="n">
-        <v>56912.72176011671</v>
+        <v>47462.26980732979</v>
       </c>
       <c r="D31" t="n">
-        <v>35029.67523833017</v>
+        <v>33769.61497795859</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>350296.7523833017</v>
+        <v>337696.1497795858</v>
       </c>
     </row>
     <row r="32">
@@ -6966,19 +6966,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96333.94035033458</v>
+        <v>94513.85330757563</v>
       </c>
       <c r="C32" t="n">
-        <v>12647.27150224816</v>
+        <v>10547.17106829551</v>
       </c>
       <c r="D32" t="n">
-        <v>7784.372275184483</v>
+        <v>7504.358883990797</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>77843.72275184482</v>
+        <v>75043.58883990796</v>
       </c>
     </row>
     <row r="33">
@@ -7279,7 +7279,7 @@
         <v>805862.1446118531</v>
       </c>
       <c r="C2" t="n">
-        <v>7252759.301506677</v>
+        <v>7252759.301506679</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -7452,19 +7452,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1607171.238178082</v>
+        <v>1576806.119348054</v>
       </c>
       <c r="C10" t="n">
-        <v>210998.6462291734</v>
+        <v>175961.9706560634</v>
       </c>
       <c r="D10" t="n">
-        <v>129869.2774576611</v>
+        <v>125197.7207145798</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1298692.774576611</v>
+        <v>1251977.207145798</v>
       </c>
     </row>
     <row r="11">
@@ -7474,19 +7474,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>257147.3981084931</v>
+        <v>252288.9790956885</v>
       </c>
       <c r="C11" t="n">
-        <v>33759.78339666774</v>
+        <v>28153.91530497014</v>
       </c>
       <c r="D11" t="n">
-        <v>20779.08439322578</v>
+        <v>20031.63531433277</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>207790.8439322578</v>
+        <v>200316.3531433276</v>
       </c>
     </row>
     <row r="12">
@@ -7496,19 +7496,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>128573.6990542465</v>
+        <v>126144.4895478443</v>
       </c>
       <c r="C12" t="n">
-        <v>16879.89169833387</v>
+        <v>14076.95765248507</v>
       </c>
       <c r="D12" t="n">
-        <v>10389.54219661289</v>
+        <v>10015.81765716638</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>103895.4219661289</v>
+        <v>100158.1765716638</v>
       </c>
     </row>
     <row r="13">
@@ -7518,19 +7518,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208932.2609631506</v>
+        <v>204984.795515247</v>
       </c>
       <c r="C13" t="n">
-        <v>27429.82400979254</v>
+        <v>22875.05618528824</v>
       </c>
       <c r="D13" t="n">
-        <v>16883.00606949594</v>
+        <v>16275.70369289537</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>168830.0606949595</v>
+        <v>162757.0369289537</v>
       </c>
     </row>
     <row r="14">
@@ -7540,19 +7540,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>144645.4114360274</v>
+        <v>141912.5507413248</v>
       </c>
       <c r="C14" t="n">
-        <v>18989.87816062561</v>
+        <v>15836.5773590457</v>
       </c>
       <c r="D14" t="n">
-        <v>11688.2349711895</v>
+        <v>11267.79486431218</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>116882.349711895</v>
+        <v>112677.9486431218</v>
       </c>
     </row>
     <row r="15">
@@ -7562,19 +7562,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>723227.0571801369</v>
+        <v>709562.753706624</v>
       </c>
       <c r="C15" t="n">
-        <v>94949.39080312803</v>
+        <v>79182.88679522852</v>
       </c>
       <c r="D15" t="n">
-        <v>58441.17485594751</v>
+        <v>56338.97432156091</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>584411.7485594749</v>
+        <v>563389.7432156091</v>
       </c>
     </row>
     <row r="16">
@@ -7584,19 +7584,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1285736.990542466</v>
+        <v>1261444.895478443</v>
       </c>
       <c r="C16" t="n">
-        <v>168798.9169833387</v>
+        <v>140769.5765248507</v>
       </c>
       <c r="D16" t="n">
-        <v>103895.4219661289</v>
+        <v>100158.1765716638</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1038954.219661289</v>
+        <v>1001581.765716638</v>
       </c>
     </row>
     <row r="17">
@@ -7606,19 +7606,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>482151.3714534246</v>
+        <v>473041.835804416</v>
       </c>
       <c r="C17" t="n">
-        <v>63299.59386875202</v>
+        <v>52788.59119681901</v>
       </c>
       <c r="D17" t="n">
-        <v>38960.78323729833</v>
+        <v>37559.31621437394</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>389607.8323729833</v>
+        <v>375593.1621437393</v>
       </c>
     </row>
     <row r="18">
@@ -7628,19 +7628,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>160717.1238178082</v>
+        <v>157680.6119348053</v>
       </c>
       <c r="C18" t="n">
-        <v>21099.86462291734</v>
+        <v>17596.19706560634</v>
       </c>
       <c r="D18" t="n">
-        <v>12986.92774576611</v>
+        <v>12519.77207145798</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>129869.2774576611</v>
+        <v>125197.7207145798</v>
       </c>
     </row>
     <row r="19">
@@ -7650,19 +7650,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>835729.0438526026</v>
+        <v>819939.1820609878</v>
       </c>
       <c r="C19" t="n">
-        <v>109719.2960391702</v>
+        <v>91500.22474115295</v>
       </c>
       <c r="D19" t="n">
-        <v>67532.02427798377</v>
+        <v>65102.81477158148</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>675320.2427798378</v>
+        <v>651028.1477158149</v>
       </c>
     </row>
     <row r="20">
@@ -7672,19 +7672,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16071.71238178082</v>
+        <v>15768.06119348053</v>
       </c>
       <c r="C20" t="n">
-        <v>2109.986462291734</v>
+        <v>1759.619706560634</v>
       </c>
       <c r="D20" t="n">
-        <v>1298.692774576611</v>
+        <v>1251.977207145798</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>12986.92774576611</v>
+        <v>12519.77207145798</v>
       </c>
     </row>
     <row r="21">
@@ -7694,19 +7694,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>433936.2343080821</v>
+        <v>425737.6522239745</v>
       </c>
       <c r="C21" t="n">
-        <v>56969.63448187682</v>
+        <v>47509.73207713712</v>
       </c>
       <c r="D21" t="n">
-        <v>35064.7049135685</v>
+        <v>33803.38459293654</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>350647.049135685</v>
+        <v>338033.8459293654</v>
       </c>
     </row>
     <row r="22">
@@ -7716,19 +7716,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>321434.2476356164</v>
+        <v>315361.2238696107</v>
       </c>
       <c r="C22" t="n">
-        <v>42199.72924583468</v>
+        <v>35192.39413121268</v>
       </c>
       <c r="D22" t="n">
-        <v>25973.85549153222</v>
+        <v>25039.54414291596</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>259738.5549153222</v>
+        <v>250395.4414291595</v>
       </c>
     </row>
     <row r="23">
@@ -7738,19 +7738,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>112501.9866724657</v>
+        <v>110376.4283543637</v>
       </c>
       <c r="C23" t="n">
-        <v>14769.90523604214</v>
+        <v>12317.33794592444</v>
       </c>
       <c r="D23" t="n">
-        <v>9090.849422036279</v>
+        <v>8763.840450020585</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>90908.49422036277</v>
+        <v>87638.40450020584</v>
       </c>
     </row>
     <row r="24">
@@ -7760,19 +7760,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>707155.3447983561</v>
+        <v>693794.6925131435</v>
       </c>
       <c r="C24" t="n">
-        <v>92839.40434083631</v>
+        <v>77423.26708866788</v>
       </c>
       <c r="D24" t="n">
-        <v>57142.48208137089</v>
+        <v>55086.99711441511</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>571424.8208137089</v>
+        <v>550869.9711441511</v>
       </c>
     </row>
     <row r="25">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>594653.3581258904</v>
+        <v>583418.2641587798</v>
       </c>
       <c r="C25" t="n">
-        <v>78069.49910479416</v>
+        <v>65105.92914274345</v>
       </c>
       <c r="D25" t="n">
-        <v>48051.63265933462</v>
+        <v>46323.15666439452</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>480516.3265933462</v>
+        <v>463231.5666439452</v>
       </c>
     </row>
     <row r="26">
@@ -7804,19 +7804,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>321434.2476356164</v>
+        <v>315361.2238696107</v>
       </c>
       <c r="C26" t="n">
-        <v>42199.72924583468</v>
+        <v>35192.39413121268</v>
       </c>
       <c r="D26" t="n">
-        <v>25973.85549153222</v>
+        <v>25039.54414291596</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>259738.5549153222</v>
+        <v>250395.4414291595</v>
       </c>
     </row>
     <row r="27">
@@ -7826,19 +7826,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1607.171238178082</v>
+        <v>1576.806119348053</v>
       </c>
       <c r="C27" t="n">
-        <v>210.9986462291734</v>
+        <v>175.9619706560634</v>
       </c>
       <c r="D27" t="n">
-        <v>129.8692774576611</v>
+        <v>125.1977207145798</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1298.692774576611</v>
+        <v>1251.977207145798</v>
       </c>
     </row>
     <row r="28">
@@ -7848,19 +7848,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8035.856190890408</v>
+        <v>7884.030596740266</v>
       </c>
       <c r="C28" t="n">
-        <v>1054.993231145867</v>
+        <v>879.8098532803168</v>
       </c>
       <c r="D28" t="n">
-        <v>649.3463872883056</v>
+        <v>625.9886035728989</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6493.463872883055</v>
+        <v>6259.886035728989</v>
       </c>
     </row>
     <row r="29">
@@ -7870,19 +7870,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>192860.5485813699</v>
+        <v>189216.7343217664</v>
       </c>
       <c r="C29" t="n">
-        <v>25319.83754750081</v>
+        <v>21115.43647872761</v>
       </c>
       <c r="D29" t="n">
-        <v>15584.31329491934</v>
+        <v>15023.72648574958</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>155843.1329491934</v>
+        <v>150237.2648574958</v>
       </c>
     </row>
     <row r="30">
@@ -7892,19 +7892,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48215.13714534247</v>
+        <v>47304.18358044161</v>
       </c>
       <c r="C30" t="n">
-        <v>6329.959386875203</v>
+        <v>5278.859119681902</v>
       </c>
       <c r="D30" t="n">
-        <v>3896.078323729834</v>
+        <v>3755.931621437394</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>38960.78323729834</v>
+        <v>37559.31621437394</v>
       </c>
     </row>
     <row r="31">
@@ -7914,19 +7914,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>433936.2343080821</v>
+        <v>425737.6522239745</v>
       </c>
       <c r="C31" t="n">
-        <v>56969.63448187682</v>
+        <v>47509.73207713712</v>
       </c>
       <c r="D31" t="n">
-        <v>35064.7049135685</v>
+        <v>33803.38459293654</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>350647.049135685</v>
+        <v>338033.8459293654</v>
       </c>
     </row>
     <row r="32">
@@ -7936,19 +7936,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96430.27429068493</v>
+        <v>94608.36716088322</v>
       </c>
       <c r="C32" t="n">
-        <v>12659.91877375041</v>
+        <v>10557.7182393638</v>
       </c>
       <c r="D32" t="n">
-        <v>7792.156647459668</v>
+        <v>7511.863242874788</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>77921.56647459668</v>
+        <v>75118.63242874788</v>
       </c>
     </row>
     <row r="33">
@@ -8271,7 +8271,7 @@
         <v>806668.0067564648</v>
       </c>
       <c r="C3" t="n">
-        <v>7260012.060808183</v>
+        <v>7260012.060808185</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -8422,19 +8422,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1608778.40941626</v>
+        <v>1578382.925467401</v>
       </c>
       <c r="C10" t="n">
-        <v>211209.6448754025</v>
+        <v>176137.9326267194</v>
       </c>
       <c r="D10" t="n">
-        <v>129999.1467351188</v>
+        <v>125322.9184352943</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1299991.467351187</v>
+        <v>1253229.184352943</v>
       </c>
     </row>
     <row r="11">
@@ -8444,19 +8444,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>257404.5455066016</v>
+        <v>252541.2680747842</v>
       </c>
       <c r="C11" t="n">
-        <v>33793.54318006441</v>
+        <v>28182.06922027511</v>
       </c>
       <c r="D11" t="n">
-        <v>20799.863477619</v>
+        <v>20051.6669496471</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>207998.63477619</v>
+        <v>200516.6694964709</v>
       </c>
     </row>
     <row r="12">
@@ -8466,19 +8466,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>128702.2727533008</v>
+        <v>126270.6340373921</v>
       </c>
       <c r="C12" t="n">
-        <v>16896.7715900322</v>
+        <v>14091.03461013755</v>
       </c>
       <c r="D12" t="n">
-        <v>10399.9317388095</v>
+        <v>10025.83347482355</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>103999.317388095</v>
+        <v>100258.3347482355</v>
       </c>
     </row>
     <row r="13">
@@ -8488,19 +8488,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>209141.1932241138</v>
+        <v>205189.7803107622</v>
       </c>
       <c r="C13" t="n">
-        <v>27457.25383380233</v>
+        <v>22897.93124147353</v>
       </c>
       <c r="D13" t="n">
-        <v>16899.88907556544</v>
+        <v>16291.97939658827</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>168998.8907556544</v>
+        <v>162919.7939658827</v>
       </c>
     </row>
     <row r="14">
@@ -8510,19 +8510,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>144790.0568474634</v>
+        <v>142054.4632920661</v>
       </c>
       <c r="C14" t="n">
-        <v>19008.86803878623</v>
+        <v>15852.41393640475</v>
       </c>
       <c r="D14" t="n">
-        <v>11699.92320616069</v>
+        <v>11279.06265917649</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>116999.2320616069</v>
+        <v>112790.6265917649</v>
       </c>
     </row>
     <row r="15">
@@ -8532,19 +8532,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>723950.2842373168</v>
+        <v>710272.3164603305</v>
       </c>
       <c r="C15" t="n">
-        <v>95044.34019393114</v>
+        <v>79262.06968202374</v>
       </c>
       <c r="D15" t="n">
-        <v>58499.61603080344</v>
+        <v>56395.31329588246</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>584996.1603080344</v>
+        <v>563953.1329588245</v>
       </c>
     </row>
     <row r="16">
@@ -8554,19 +8554,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1287022.727533008</v>
+        <v>1262706.340373921</v>
       </c>
       <c r="C16" t="n">
-        <v>168967.715900322</v>
+        <v>140910.3461013755</v>
       </c>
       <c r="D16" t="n">
-        <v>103999.317388095</v>
+        <v>100258.3347482355</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1039993.17388095</v>
+        <v>1002583.347482355</v>
       </c>
     </row>
     <row r="17">
@@ -8576,19 +8576,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>482633.5228248779</v>
+        <v>473514.8776402203</v>
       </c>
       <c r="C17" t="n">
-        <v>63362.89346262076</v>
+        <v>52841.37978801582</v>
       </c>
       <c r="D17" t="n">
-        <v>38999.74402053563</v>
+        <v>37596.8755305883</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>389997.4402053563</v>
+        <v>375968.755305883</v>
       </c>
     </row>
     <row r="18">
@@ -8598,19 +8598,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>160877.840941626</v>
+        <v>157838.2925467402</v>
       </c>
       <c r="C18" t="n">
-        <v>21120.96448754026</v>
+        <v>17613.79326267194</v>
       </c>
       <c r="D18" t="n">
-        <v>12999.91467351188</v>
+        <v>12532.29184352944</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>129999.1467351188</v>
+        <v>125322.9184352943</v>
       </c>
     </row>
     <row r="19">
@@ -8620,19 +8620,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>836564.7728964551</v>
+        <v>820759.1212430487</v>
       </c>
       <c r="C19" t="n">
-        <v>109829.0153352093</v>
+        <v>91591.7249658941</v>
       </c>
       <c r="D19" t="n">
-        <v>67599.55630226176</v>
+        <v>65167.91758635306</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>675995.5630226176</v>
+        <v>651679.1758635306</v>
       </c>
     </row>
     <row r="20">
@@ -8642,19 +8642,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16087.7840941626</v>
+        <v>15783.82925467401</v>
       </c>
       <c r="C20" t="n">
-        <v>2112.096448754025</v>
+        <v>1761.379326267194</v>
       </c>
       <c r="D20" t="n">
-        <v>1299.991467351188</v>
+        <v>1253.229184352944</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>12999.91467351188</v>
+        <v>12532.29184352943</v>
       </c>
     </row>
     <row r="21">
@@ -8664,19 +8664,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>434370.1705423901</v>
+        <v>426163.3898761983</v>
       </c>
       <c r="C21" t="n">
-        <v>57026.60411635868</v>
+        <v>47557.24180921423</v>
       </c>
       <c r="D21" t="n">
-        <v>35099.76961848206</v>
+        <v>33837.18797752947</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>350997.6961848206</v>
+        <v>338371.8797752947</v>
       </c>
     </row>
     <row r="22">
@@ -8686,19 +8686,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>321755.681883252</v>
+        <v>315676.5850934803</v>
       </c>
       <c r="C22" t="n">
-        <v>42241.92897508051</v>
+        <v>35227.58652534388</v>
       </c>
       <c r="D22" t="n">
-        <v>25999.82934702375</v>
+        <v>25064.58368705887</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>259998.2934702375</v>
+        <v>250645.8368705887</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>112614.4886591382</v>
+        <v>110486.8047827181</v>
       </c>
       <c r="C23" t="n">
-        <v>14784.67514127818</v>
+        <v>12329.65528387036</v>
       </c>
       <c r="D23" t="n">
-        <v>9099.940271458314</v>
+        <v>8772.604290470605</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>90999.40271458314</v>
+        <v>87726.04290470605</v>
       </c>
     </row>
     <row r="24">
@@ -8730,19 +8730,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>707862.5001431543</v>
+        <v>694488.4872056566</v>
       </c>
       <c r="C24" t="n">
-        <v>92932.24374517713</v>
+        <v>77500.69035575654</v>
       </c>
       <c r="D24" t="n">
-        <v>57199.62456345225</v>
+        <v>55142.08411152951</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>571996.2456345225</v>
+        <v>551420.8411152951</v>
       </c>
     </row>
     <row r="25">
@@ -8752,19 +8752,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>595248.0114840162</v>
+        <v>584001.6824229385</v>
       </c>
       <c r="C25" t="n">
-        <v>78147.56860389895</v>
+        <v>65171.03507188618</v>
       </c>
       <c r="D25" t="n">
-        <v>48099.68429199394</v>
+        <v>46369.47982105891</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>480996.8429199394</v>
+        <v>463694.798210589</v>
       </c>
     </row>
     <row r="26">
@@ -8774,19 +8774,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>321755.681883252</v>
+        <v>315676.5850934803</v>
       </c>
       <c r="C26" t="n">
-        <v>42241.92897508051</v>
+        <v>35227.58652534388</v>
       </c>
       <c r="D26" t="n">
-        <v>25999.82934702375</v>
+        <v>25064.58368705887</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>259998.2934702375</v>
+        <v>250645.8368705887</v>
       </c>
     </row>
     <row r="27">
@@ -8796,19 +8796,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1608.77840941626</v>
+        <v>1578.382925467401</v>
       </c>
       <c r="C27" t="n">
-        <v>211.2096448754025</v>
+        <v>176.1379326267194</v>
       </c>
       <c r="D27" t="n">
-        <v>129.9991467351188</v>
+        <v>125.3229184352943</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1299.991467351187</v>
+        <v>1253.229184352943</v>
       </c>
     </row>
     <row r="28">
@@ -8818,19 +8818,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8043.892047081299</v>
+        <v>7891.914627337006</v>
       </c>
       <c r="C28" t="n">
-        <v>1056.048224377013</v>
+        <v>880.689663133597</v>
       </c>
       <c r="D28" t="n">
-        <v>649.9957336755938</v>
+        <v>626.6145921764718</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6499.957336755938</v>
+        <v>6266.145921764717</v>
       </c>
     </row>
     <row r="29">
@@ -8840,19 +8840,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>193053.4091299511</v>
+        <v>189405.9510560881</v>
       </c>
       <c r="C29" t="n">
-        <v>25345.1573850483</v>
+        <v>21136.55191520633</v>
       </c>
       <c r="D29" t="n">
-        <v>15599.89760821425</v>
+        <v>15038.75021223532</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>155998.9760821425</v>
+        <v>150387.5021223532</v>
       </c>
     </row>
     <row r="30">
@@ -8862,19 +8862,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48263.35228248779</v>
+        <v>47351.48776402203</v>
       </c>
       <c r="C30" t="n">
-        <v>6336.289346262075</v>
+        <v>5284.137978801582</v>
       </c>
       <c r="D30" t="n">
-        <v>3899.974402053563</v>
+        <v>3759.68755305883</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>38999.74402053563</v>
+        <v>37596.8755305883</v>
       </c>
     </row>
     <row r="31">
@@ -8884,19 +8884,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>434370.1705423901</v>
+        <v>426163.3898761983</v>
       </c>
       <c r="C31" t="n">
-        <v>57026.60411635868</v>
+        <v>47557.24180921423</v>
       </c>
       <c r="D31" t="n">
-        <v>35099.76961848206</v>
+        <v>33837.18797752947</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>350997.6961848206</v>
+        <v>338371.8797752947</v>
       </c>
     </row>
     <row r="32">
@@ -8906,19 +8906,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96526.70456497557</v>
+        <v>94702.97552804406</v>
       </c>
       <c r="C32" t="n">
-        <v>12672.57869252415</v>
+        <v>10568.27595760316</v>
       </c>
       <c r="D32" t="n">
-        <v>7799.948804107125</v>
+        <v>7519.375106117661</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>77999.48804107125</v>
+        <v>75193.75106117659</v>
       </c>
     </row>
     <row r="33">
@@ -9241,7 +9241,7 @@
         <v>807474.6747632211</v>
       </c>
       <c r="C3" t="n">
-        <v>7267272.07286899</v>
+        <v>7267272.072868991</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -9392,19 +9392,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1610387.187825676</v>
+        <v>1579961.308392868</v>
       </c>
       <c r="C10" t="n">
-        <v>211420.8545202779</v>
+        <v>176314.0705593461</v>
       </c>
       <c r="D10" t="n">
-        <v>130129.1458818539</v>
+        <v>125448.2413537296</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1301291.458818538</v>
+        <v>1254482.413537296</v>
       </c>
     </row>
     <row r="11">
@@ -9414,19 +9414,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>257661.9500521081</v>
+        <v>252793.809342859</v>
       </c>
       <c r="C11" t="n">
-        <v>33827.33672324447</v>
+        <v>28210.25128949538</v>
       </c>
       <c r="D11" t="n">
-        <v>20820.66334109662</v>
+        <v>20071.71861659674</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>208206.6334109662</v>
+        <v>200717.1861659674</v>
       </c>
     </row>
     <row r="12">
@@ -9436,19 +9436,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>128830.9750260541</v>
+        <v>126396.9046714295</v>
       </c>
       <c r="C12" t="n">
-        <v>16913.66836162223</v>
+        <v>14105.12564474769</v>
       </c>
       <c r="D12" t="n">
-        <v>10410.33167054831</v>
+        <v>10035.85930829837</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>104103.3167054831</v>
+        <v>100358.5930829837</v>
       </c>
     </row>
     <row r="13">
@@ -9458,19 +9458,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>209350.3344173378</v>
+        <v>205394.9700910729</v>
       </c>
       <c r="C13" t="n">
-        <v>27484.71108763613</v>
+        <v>22920.82917271499</v>
       </c>
       <c r="D13" t="n">
-        <v>16916.788964641</v>
+        <v>16308.27137598485</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>169167.88964641</v>
+        <v>163082.7137598485</v>
       </c>
     </row>
     <row r="14">
@@ -9480,19 +9480,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>144934.8469043108</v>
+        <v>142196.5177553582</v>
       </c>
       <c r="C14" t="n">
-        <v>19027.87690682501</v>
+        <v>15868.26635034115</v>
       </c>
       <c r="D14" t="n">
-        <v>11711.62312936685</v>
+        <v>11290.34172183567</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>117116.2312936685</v>
+        <v>112903.4172183567</v>
       </c>
     </row>
     <row r="15">
@@ -9502,19 +9502,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>724674.2345215541</v>
+        <v>710982.5887767908</v>
       </c>
       <c r="C15" t="n">
-        <v>95139.38453412506</v>
+        <v>79341.33175170574</v>
       </c>
       <c r="D15" t="n">
-        <v>58558.11564683423</v>
+        <v>56451.70860917833</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>585581.1564683423</v>
+        <v>564517.0860917831</v>
       </c>
     </row>
     <row r="16">
@@ -9524,19 +9524,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1288309.750260541</v>
+        <v>1263969.046714295</v>
       </c>
       <c r="C16" t="n">
-        <v>169136.6836162223</v>
+        <v>141051.2564474769</v>
       </c>
       <c r="D16" t="n">
-        <v>104103.3167054831</v>
+        <v>100358.5930829837</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1041033.167054831</v>
+        <v>1003585.930829837</v>
       </c>
     </row>
     <row r="17">
@@ -9546,19 +9546,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>483116.1563477027</v>
+        <v>473988.3925178605</v>
       </c>
       <c r="C17" t="n">
-        <v>63426.25635608337</v>
+        <v>52894.22116780383</v>
       </c>
       <c r="D17" t="n">
-        <v>39038.74376455616</v>
+        <v>37634.47240611889</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>390387.4376455615</v>
+        <v>376344.7240611888</v>
       </c>
     </row>
     <row r="18">
@@ -9568,19 +9568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>161038.7187825676</v>
+        <v>157996.1308392869</v>
       </c>
       <c r="C18" t="n">
-        <v>21142.08545202779</v>
+        <v>17631.40705593461</v>
       </c>
       <c r="D18" t="n">
-        <v>13012.91458818539</v>
+        <v>12544.82413537296</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>130129.1458818539</v>
+        <v>125448.2413537296</v>
       </c>
     </row>
     <row r="19">
@@ -9590,19 +9590,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>837401.3376693514</v>
+        <v>821579.8803642916</v>
       </c>
       <c r="C19" t="n">
-        <v>109938.8443505445</v>
+        <v>91683.31669085997</v>
       </c>
       <c r="D19" t="n">
-        <v>67667.155858564</v>
+        <v>65233.0855039394</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>676671.55858564</v>
+        <v>652330.855039394</v>
       </c>
     </row>
     <row r="20">
@@ -9612,19 +9612,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16103.87187825676</v>
+        <v>15799.61308392869</v>
       </c>
       <c r="C20" t="n">
-        <v>2114.208545202779</v>
+        <v>1763.140705593461</v>
       </c>
       <c r="D20" t="n">
-        <v>1301.291458818539</v>
+        <v>1254.482413537296</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>13012.91458818539</v>
+        <v>12544.82413537296</v>
       </c>
     </row>
     <row r="21">
@@ -9634,19 +9634,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>434804.5407129325</v>
+        <v>426589.5532660745</v>
       </c>
       <c r="C21" t="n">
-        <v>57083.63072047504</v>
+        <v>47604.79905102345</v>
       </c>
       <c r="D21" t="n">
-        <v>35134.86938810055</v>
+        <v>33871.025165507</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>351348.6938810055</v>
+        <v>338710.25165507</v>
       </c>
     </row>
     <row r="22">
@@ -9656,19 +9656,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>322077.4375651352</v>
+        <v>315992.2616785737</v>
       </c>
       <c r="C22" t="n">
-        <v>42284.17090405559</v>
+        <v>35262.81411186922</v>
       </c>
       <c r="D22" t="n">
-        <v>26025.82917637077</v>
+        <v>25089.64827074593</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>260258.2917637077</v>
+        <v>250896.4827074593</v>
       </c>
     </row>
     <row r="23">
@@ -9678,19 +9678,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>112727.1031477973</v>
+        <v>110597.2915875008</v>
       </c>
       <c r="C23" t="n">
-        <v>14799.45981641945</v>
+        <v>12341.98493915423</v>
       </c>
       <c r="D23" t="n">
-        <v>9109.040211729769</v>
+        <v>8781.376894761073</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>91090.40211729769</v>
+        <v>87813.76894761073</v>
       </c>
     </row>
     <row r="24">
@@ -9700,19 +9700,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>708570.3626432974</v>
+        <v>695182.9756928621</v>
       </c>
       <c r="C24" t="n">
-        <v>93025.17598892229</v>
+        <v>77578.19104611229</v>
       </c>
       <c r="D24" t="n">
-        <v>57256.8241880157</v>
+        <v>55197.22619564104</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>572568.241880157</v>
+        <v>551972.2619564102</v>
       </c>
     </row>
     <row r="25">
@@ -9722,19 +9722,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>595843.2594955</v>
+        <v>584585.6841053612</v>
       </c>
       <c r="C25" t="n">
-        <v>78225.71617250281</v>
+        <v>65236.20610695805</v>
       </c>
       <c r="D25" t="n">
-        <v>48147.78397628592</v>
+        <v>46415.84930087996</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>481477.8397628592</v>
+        <v>464158.4930087995</v>
       </c>
     </row>
     <row r="26">
@@ -9744,19 +9744,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>322077.4375651352</v>
+        <v>315992.2616785737</v>
       </c>
       <c r="C26" t="n">
-        <v>42284.17090405559</v>
+        <v>35262.81411186922</v>
       </c>
       <c r="D26" t="n">
-        <v>26025.82917637077</v>
+        <v>25089.64827074593</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>260258.2917637077</v>
+        <v>250896.4827074593</v>
       </c>
     </row>
     <row r="27">
@@ -9766,19 +9766,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1610.387187825676</v>
+        <v>1579.961308392868</v>
       </c>
       <c r="C27" t="n">
-        <v>211.4208545202779</v>
+        <v>176.3140705593461</v>
       </c>
       <c r="D27" t="n">
-        <v>130.1291458818538</v>
+        <v>125.4482413537296</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1301.291458818539</v>
+        <v>1254.482413537296</v>
       </c>
     </row>
     <row r="28">
@@ -9788,19 +9788,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8051.935939128379</v>
+        <v>7899.806541964343</v>
       </c>
       <c r="C28" t="n">
-        <v>1057.10427260139</v>
+        <v>881.5703527967305</v>
       </c>
       <c r="D28" t="n">
-        <v>650.6457294092693</v>
+        <v>627.2412067686481</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6506.457294092693</v>
+        <v>6272.412067686481</v>
       </c>
     </row>
     <row r="29">
@@ -9810,19 +9810,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>193246.4625390811</v>
+        <v>189595.3570071442</v>
       </c>
       <c r="C29" t="n">
-        <v>25370.50254243335</v>
+        <v>21157.68846712153</v>
       </c>
       <c r="D29" t="n">
-        <v>15615.49750582246</v>
+        <v>15053.78896244755</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>156154.9750582246</v>
+        <v>150537.8896244755</v>
       </c>
     </row>
     <row r="30">
@@ -9832,19 +9832,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48311.61563477027</v>
+        <v>47398.83925178605</v>
       </c>
       <c r="C30" t="n">
-        <v>6342.625635608337</v>
+        <v>5289.422116780383</v>
       </c>
       <c r="D30" t="n">
-        <v>3903.874376455615</v>
+        <v>3763.447240611888</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>39038.74376455616</v>
+        <v>37634.47240611888</v>
       </c>
     </row>
     <row r="31">
@@ -9854,19 +9854,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>434804.5407129325</v>
+        <v>426589.5532660745</v>
       </c>
       <c r="C31" t="n">
-        <v>57083.63072047504</v>
+        <v>47604.79905102345</v>
       </c>
       <c r="D31" t="n">
-        <v>35134.86938810055</v>
+        <v>33871.025165507</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>351348.6938810055</v>
+        <v>338710.25165507</v>
       </c>
     </row>
     <row r="32">
@@ -9876,19 +9876,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96623.23126954054</v>
+        <v>94797.6785035721</v>
       </c>
       <c r="C32" t="n">
-        <v>12685.25127121667</v>
+        <v>10578.84423356077</v>
       </c>
       <c r="D32" t="n">
-        <v>7807.74875291123</v>
+        <v>7526.894481223777</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>78077.48752911232</v>
+        <v>75268.94481223775</v>
       </c>
     </row>
     <row r="33">
@@ -10362,19 +10362,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1611997.575013501</v>
+        <v>1581541.269701261</v>
       </c>
       <c r="C10" t="n">
-        <v>211632.2753747982</v>
+        <v>176490.3846299054</v>
       </c>
       <c r="D10" t="n">
-        <v>130259.2750277357</v>
+        <v>125573.6895950833</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1302592.750277357</v>
+        <v>1255736.895950833</v>
       </c>
     </row>
     <row r="11">
@@ -10384,19 +10384,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>257919.6120021602</v>
+        <v>253046.6031522018</v>
       </c>
       <c r="C11" t="n">
-        <v>33861.16405996771</v>
+        <v>28238.46154078487</v>
       </c>
       <c r="D11" t="n">
-        <v>20841.48400443771</v>
+        <v>20091.79033521333</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>208414.8400443771</v>
+        <v>200917.9033521333</v>
       </c>
     </row>
     <row r="12">
@@ -10406,19 +10406,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>128959.8060010801</v>
+        <v>126523.3015761009</v>
       </c>
       <c r="C12" t="n">
-        <v>16930.58202998386</v>
+        <v>14119.23077039243</v>
       </c>
       <c r="D12" t="n">
-        <v>10420.74200221886</v>
+        <v>10045.89516760667</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>104207.4200221886</v>
+        <v>100458.9516760667</v>
       </c>
     </row>
     <row r="13">
@@ -10428,19 +10428,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>209559.6847517552</v>
+        <v>205600.365061164</v>
       </c>
       <c r="C13" t="n">
-        <v>27512.19579872377</v>
+        <v>22943.75000188771</v>
       </c>
       <c r="D13" t="n">
-        <v>16933.70575360564</v>
+        <v>16324.57964736084</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>169337.0575360564</v>
+        <v>163245.7964736084</v>
       </c>
     </row>
     <row r="14">
@@ -10450,19 +10450,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>145079.7817512151</v>
+        <v>142338.7142731135</v>
       </c>
       <c r="C14" t="n">
-        <v>19046.90478373184</v>
+        <v>15884.13461669149</v>
       </c>
       <c r="D14" t="n">
-        <v>11723.33475249621</v>
+        <v>11301.6320635575</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>117233.3475249621</v>
+        <v>113016.320635575</v>
       </c>
     </row>
     <row r="15">
@@ -10472,19 +10472,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>725398.9087560757</v>
+        <v>711693.5713655676</v>
       </c>
       <c r="C15" t="n">
-        <v>95234.52391865919</v>
+        <v>79420.67308345746</v>
       </c>
       <c r="D15" t="n">
-        <v>58616.67376248106</v>
+        <v>56508.16031778751</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>586166.7376248108</v>
+        <v>565081.603177875</v>
       </c>
     </row>
     <row r="16">
@@ -10494,19 +10494,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1289598.060010801</v>
+        <v>1265233.015761009</v>
       </c>
       <c r="C16" t="n">
-        <v>169305.8202998385</v>
+        <v>141192.3077039243</v>
       </c>
       <c r="D16" t="n">
-        <v>104207.4200221886</v>
+        <v>100458.9516760667</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1042074.200221885</v>
+        <v>1004589.516760667</v>
       </c>
     </row>
     <row r="17">
@@ -10516,19 +10516,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>483599.2725040503</v>
+        <v>474462.3809103783</v>
       </c>
       <c r="C17" t="n">
-        <v>63489.68261243944</v>
+        <v>52947.11538897162</v>
       </c>
       <c r="D17" t="n">
-        <v>39077.78250832071</v>
+        <v>37672.106878525</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>390777.825083207</v>
+        <v>376721.06878525</v>
       </c>
     </row>
     <row r="18">
@@ -10538,19 +10538,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>161199.7575013501</v>
+        <v>158154.1269701261</v>
       </c>
       <c r="C18" t="n">
-        <v>21163.22753747982</v>
+        <v>17649.03846299054</v>
       </c>
       <c r="D18" t="n">
-        <v>13025.92750277357</v>
+        <v>12557.36895950833</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>130259.2750277357</v>
+        <v>125573.6895950833</v>
       </c>
     </row>
     <row r="19">
@@ -10560,19 +10560,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>838238.7390070207</v>
+        <v>822401.4602446558</v>
       </c>
       <c r="C19" t="n">
-        <v>110048.7831948951</v>
+        <v>91775.00000755083</v>
       </c>
       <c r="D19" t="n">
-        <v>67734.82301442257</v>
+        <v>65298.31858944334</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>677348.2301442256</v>
+        <v>652983.1858944334</v>
       </c>
     </row>
     <row r="20">
@@ -10582,19 +10582,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16119.97575013501</v>
+        <v>15815.41269701261</v>
       </c>
       <c r="C20" t="n">
-        <v>2116.322753747982</v>
+        <v>1764.903846299054</v>
       </c>
       <c r="D20" t="n">
-        <v>1302.592750277357</v>
+        <v>1255.736895950833</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>13025.92750277357</v>
+        <v>12557.36895950833</v>
       </c>
     </row>
     <row r="21">
@@ -10604,19 +10604,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>435239.3452536454</v>
+        <v>427016.1428193405</v>
       </c>
       <c r="C21" t="n">
-        <v>57140.71435119551</v>
+        <v>47652.40385007447</v>
       </c>
       <c r="D21" t="n">
-        <v>35170.00425748864</v>
+        <v>33904.8961906725</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>351700.0425748863</v>
+        <v>339048.9619067251</v>
       </c>
     </row>
     <row r="22">
@@ -10626,19 +10626,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>322399.5150027003</v>
+        <v>316308.2539402522</v>
       </c>
       <c r="C22" t="n">
-        <v>42326.45507495963</v>
+        <v>35298.07692598108</v>
       </c>
       <c r="D22" t="n">
-        <v>26051.85500554714</v>
+        <v>25114.73791901667</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>260518.5500554713</v>
+        <v>251147.3791901666</v>
       </c>
     </row>
     <row r="23">
@@ -10648,19 +10648,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>112839.8302509451</v>
+        <v>110707.8888790883</v>
       </c>
       <c r="C23" t="n">
-        <v>14814.25927623587</v>
+        <v>12354.32692409338</v>
       </c>
       <c r="D23" t="n">
-        <v>9118.149251941499</v>
+        <v>8790.158271655835</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>91181.49251941498</v>
+        <v>87901.58271655833</v>
       </c>
     </row>
     <row r="24">
@@ -10670,19 +10670,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>709278.9330059406</v>
+        <v>695878.158668555</v>
       </c>
       <c r="C24" t="n">
-        <v>93118.20116491121</v>
+        <v>77655.7692371584</v>
       </c>
       <c r="D24" t="n">
-        <v>57314.08101220371</v>
+        <v>55252.42342183667</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>573140.8101220371</v>
+        <v>552524.2342183667</v>
       </c>
     </row>
     <row r="25">
@@ -10692,19 +10692,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>596439.1027549956</v>
+        <v>585170.2697894668</v>
       </c>
       <c r="C25" t="n">
-        <v>78303.94188867534</v>
+        <v>65301.44231306502</v>
       </c>
       <c r="D25" t="n">
-        <v>48195.93176026221</v>
+        <v>46462.26515018084</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>481959.3176026221</v>
+        <v>464622.6515018084</v>
       </c>
     </row>
     <row r="26">
@@ -10714,19 +10714,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>322399.5150027003</v>
+        <v>316308.2539402522</v>
       </c>
       <c r="C26" t="n">
-        <v>42326.45507495963</v>
+        <v>35298.07692598108</v>
       </c>
       <c r="D26" t="n">
-        <v>26051.85500554714</v>
+        <v>25114.73791901667</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>260518.5500554713</v>
+        <v>251147.3791901666</v>
       </c>
     </row>
     <row r="27">
@@ -10736,19 +10736,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1611.997575013502</v>
+        <v>1581.541269701261</v>
       </c>
       <c r="C27" t="n">
-        <v>211.6322753747982</v>
+        <v>176.4903846299055</v>
       </c>
       <c r="D27" t="n">
-        <v>130.2592750277357</v>
+        <v>125.5736895950834</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1302.592750277357</v>
+        <v>1255.736895950834</v>
       </c>
     </row>
     <row r="28">
@@ -10758,19 +10758,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8059.987875067507</v>
+        <v>7907.706348506306</v>
       </c>
       <c r="C28" t="n">
-        <v>1058.161376873991</v>
+        <v>882.4519231495271</v>
       </c>
       <c r="D28" t="n">
-        <v>651.2963751386785</v>
+        <v>627.8684479754166</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6512.963751386786</v>
+        <v>6278.684479754167</v>
       </c>
     </row>
     <row r="29">
@@ -10780,19 +10780,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>193439.7090016202</v>
+        <v>189784.9523641513</v>
       </c>
       <c r="C29" t="n">
-        <v>25395.87304497578</v>
+        <v>21178.84615558865</v>
       </c>
       <c r="D29" t="n">
-        <v>15631.11300332828</v>
+        <v>15068.84275141</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>156311.1300332829</v>
+        <v>150688.4275141</v>
       </c>
     </row>
     <row r="30">
@@ -10802,19 +10802,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48359.92725040504</v>
+        <v>47446.23809103783</v>
       </c>
       <c r="C30" t="n">
-        <v>6348.968261243946</v>
+        <v>5294.711538897163</v>
       </c>
       <c r="D30" t="n">
-        <v>3907.778250832071</v>
+        <v>3767.2106878525</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>39077.78250832071</v>
+        <v>37672.106878525</v>
       </c>
     </row>
     <row r="31">
@@ -10824,19 +10824,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435239.3452536454</v>
+        <v>427016.1428193405</v>
       </c>
       <c r="C31" t="n">
-        <v>57140.71435119551</v>
+        <v>47652.40385007447</v>
       </c>
       <c r="D31" t="n">
-        <v>35170.00425748864</v>
+        <v>33904.8961906725</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>351700.0425748863</v>
+        <v>339048.9619067251</v>
       </c>
     </row>
     <row r="32">
@@ -10846,19 +10846,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96719.85450081008</v>
+        <v>94892.47618207567</v>
       </c>
       <c r="C32" t="n">
-        <v>12697.93652248789</v>
+        <v>10589.42307779433</v>
       </c>
       <c r="D32" t="n">
-        <v>7815.556501664141</v>
+        <v>7534.421375705</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>78155.56501664143</v>
+        <v>75344.21375705001</v>
       </c>
     </row>
     <row r="33">
@@ -11156,13 +11156,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>588051.5381481481</v>
+        <v>635731.3925925924</v>
       </c>
       <c r="C2" t="n">
-        <v>882077.307222222</v>
+        <v>953597.0888888885</v>
       </c>
       <c r="D2" t="n">
-        <v>4410386.53611111</v>
+        <v>4767985.444444442</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -11178,13 +11178,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>635731.3925925924</v>
+        <v>635731.3925925925</v>
       </c>
       <c r="C3" t="n">
         <v>953597.0888888885</v>
       </c>
       <c r="D3" t="n">
-        <v>4767985.444444442</v>
+        <v>4767985.444444443</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -11200,13 +11200,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>588051.5381481481</v>
+        <v>635731.3925925924</v>
       </c>
       <c r="C4" t="n">
-        <v>882077.307222222</v>
+        <v>953597.0888888885</v>
       </c>
       <c r="D4" t="n">
-        <v>4410386.53611111</v>
+        <v>4767985.444444442</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -11222,13 +11222,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>194586.9851851852</v>
+        <v>194586.9851851851</v>
       </c>
       <c r="C5" t="n">
         <v>291880.4777777776</v>
       </c>
       <c r="D5" t="n">
-        <v>1459402.388888889</v>
+        <v>1459402.388888888</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -12129,7 +12129,7 @@
         <v>809090.4315874222</v>
       </c>
       <c r="C2" t="n">
-        <v>7281813.8842868</v>
+        <v>7281813.884286799</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -12151,7 +12151,7 @@
         <v>809090.4315874222</v>
       </c>
       <c r="C3" t="n">
-        <v>7281813.8842868</v>
+        <v>7281813.884286799</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -12195,7 +12195,7 @@
         <v>247649.3526341729</v>
       </c>
       <c r="C5" t="n">
-        <v>2228844.173707556</v>
+        <v>2228844.173707557</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -12302,19 +12302,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1613609.572588515</v>
+        <v>1583122.810970963</v>
       </c>
       <c r="C10" t="n">
-        <v>211843.907650173</v>
+        <v>176666.8750145354</v>
       </c>
       <c r="D10" t="n">
-        <v>130389.5343027634</v>
+        <v>125699.2632846784</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1303895.343027635</v>
+        <v>1256992.632846784</v>
       </c>
     </row>
     <row r="11">
@@ -12324,19 +12324,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>258177.5316141623</v>
+        <v>253299.649755354</v>
       </c>
       <c r="C11" t="n">
-        <v>33895.02522402767</v>
+        <v>28266.70000232565</v>
       </c>
       <c r="D11" t="n">
-        <v>20862.32548844215</v>
+        <v>20111.88212554855</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>208623.2548844214</v>
+        <v>201118.8212554854</v>
       </c>
     </row>
     <row r="12">
@@ -12346,19 +12346,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>129088.7658070812</v>
+        <v>126649.824877677</v>
       </c>
       <c r="C12" t="n">
-        <v>16947.51261201383</v>
+        <v>14133.35000116283</v>
       </c>
       <c r="D12" t="n">
-        <v>10431.16274422107</v>
+        <v>10055.94106277427</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>104311.6274422107</v>
+        <v>100559.4106277427</v>
       </c>
     </row>
     <row r="13">
@@ -12368,19 +12368,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>209769.2444365069</v>
+        <v>205805.9654262251</v>
       </c>
       <c r="C13" t="n">
-        <v>27539.70799452249</v>
+        <v>22966.69375188959</v>
       </c>
       <c r="D13" t="n">
-        <v>16950.63945935925</v>
+        <v>16340.9042270082</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>169506.3945935924</v>
+        <v>163409.0422700819</v>
       </c>
     </row>
     <row r="14">
@@ -12390,19 +12390,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>145224.8615329663</v>
+        <v>142481.0529873866</v>
       </c>
       <c r="C14" t="n">
-        <v>19065.95168851556</v>
+        <v>15900.01875130818</v>
       </c>
       <c r="D14" t="n">
-        <v>11735.05808724871</v>
+        <v>11312.93369562106</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>117350.5808724871</v>
+        <v>113129.3369562106</v>
       </c>
     </row>
     <row r="15">
@@ -12412,19 +12412,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>726124.3076648318</v>
+        <v>712405.2649369332</v>
       </c>
       <c r="C15" t="n">
-        <v>95329.75844257785</v>
+        <v>79500.09375654091</v>
       </c>
       <c r="D15" t="n">
-        <v>58675.29043624354</v>
+        <v>56564.66847810529</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>586752.9043624356</v>
+        <v>565646.684781053</v>
       </c>
     </row>
     <row r="16">
@@ -12434,19 +12434,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1290887.658070812</v>
+        <v>1266498.24877677</v>
       </c>
       <c r="C16" t="n">
-        <v>169475.1261201384</v>
+        <v>141333.5000116283</v>
       </c>
       <c r="D16" t="n">
-        <v>104311.6274422107</v>
+        <v>100559.4106277427</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1043116.274422107</v>
+        <v>1005594.106277427</v>
       </c>
     </row>
     <row r="17">
@@ -12456,19 +12456,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>484082.8717765544</v>
+        <v>474936.8432912887</v>
       </c>
       <c r="C17" t="n">
-        <v>63553.17229505189</v>
+        <v>53000.0625043606</v>
       </c>
       <c r="D17" t="n">
-        <v>39116.86029082903</v>
+        <v>37709.77898540353</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>391168.6029082903</v>
+        <v>377097.7898540352</v>
       </c>
     </row>
     <row r="18">
@@ -12478,19 +12478,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>161360.9572588515</v>
+        <v>158312.2810970962</v>
       </c>
       <c r="C18" t="n">
-        <v>21184.3907650173</v>
+        <v>17666.68750145353</v>
       </c>
       <c r="D18" t="n">
-        <v>13038.95343027634</v>
+        <v>12569.92632846784</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>130389.5343027634</v>
+        <v>125699.2632846784</v>
       </c>
     </row>
     <row r="19">
@@ -12500,19 +12500,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>839076.9777460278</v>
+        <v>823223.8617049005</v>
       </c>
       <c r="C19" t="n">
-        <v>110158.8319780899</v>
+        <v>91866.77500755838</v>
       </c>
       <c r="D19" t="n">
-        <v>67802.55783743699</v>
+        <v>65363.61690803278</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>678025.5783743698</v>
+        <v>653636.1690803277</v>
       </c>
     </row>
     <row r="20">
@@ -12522,19 +12522,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16136.09572588515</v>
+        <v>15831.22810970962</v>
       </c>
       <c r="C20" t="n">
-        <v>2118.439076501729</v>
+        <v>1766.668750145353</v>
       </c>
       <c r="D20" t="n">
-        <v>1303.895343027634</v>
+        <v>1256.992632846784</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>13038.95343027634</v>
+        <v>12569.92632846784</v>
       </c>
     </row>
     <row r="21">
@@ -12544,19 +12544,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>435674.584598899</v>
+        <v>427443.1589621599</v>
       </c>
       <c r="C21" t="n">
-        <v>57197.8550655467</v>
+        <v>47700.05625392454</v>
       </c>
       <c r="D21" t="n">
-        <v>35205.17426174613</v>
+        <v>33938.80108686318</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>352051.7426174613</v>
+        <v>339388.0108686318</v>
       </c>
     </row>
     <row r="22">
@@ -12566,19 +12566,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>322721.9145177029</v>
+        <v>316624.5621941924</v>
       </c>
       <c r="C22" t="n">
-        <v>42368.78153003459</v>
+        <v>35333.37500290707</v>
       </c>
       <c r="D22" t="n">
-        <v>26077.90686055268</v>
+        <v>25139.85265693568</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>260779.0686055268</v>
+        <v>251398.5265693568</v>
       </c>
     </row>
     <row r="23">
@@ -12588,19 +12588,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>112952.670081196</v>
+        <v>110818.5967679674</v>
       </c>
       <c r="C23" t="n">
-        <v>14829.07353551211</v>
+        <v>12366.68125101747</v>
       </c>
       <c r="D23" t="n">
-        <v>9127.26740119344</v>
+        <v>8798.94842992749</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>91272.67401193439</v>
+        <v>87989.48429927489</v>
       </c>
     </row>
     <row r="24">
@@ -12610,19 +12610,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>709988.2119389465</v>
+        <v>696574.0368272234</v>
       </c>
       <c r="C24" t="n">
-        <v>93211.3193660761</v>
+        <v>77733.42500639554</v>
       </c>
       <c r="D24" t="n">
-        <v>57371.39509321591</v>
+        <v>55307.67584525851</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>573713.9509321591</v>
+        <v>553076.7584525851</v>
       </c>
     </row>
     <row r="25">
@@ -12632,19 +12632,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>597035.5418577504</v>
+        <v>585755.440059256</v>
       </c>
       <c r="C25" t="n">
-        <v>78382.24583056399</v>
+        <v>65366.74375537807</v>
       </c>
       <c r="D25" t="n">
-        <v>48244.12769202247</v>
+        <v>46508.72741533101</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>482441.2769202245</v>
+        <v>465087.27415331</v>
       </c>
     </row>
     <row r="26">
@@ -12654,19 +12654,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>322721.9145177029</v>
+        <v>316624.5621941924</v>
       </c>
       <c r="C26" t="n">
-        <v>42368.78153003459</v>
+        <v>35333.37500290707</v>
       </c>
       <c r="D26" t="n">
-        <v>26077.90686055268</v>
+        <v>25139.85265693568</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>260779.0686055268</v>
+        <v>251398.5265693568</v>
       </c>
     </row>
     <row r="27">
@@ -12676,19 +12676,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1613.609572588515</v>
+        <v>1583.122810970963</v>
       </c>
       <c r="C27" t="n">
-        <v>211.843907650173</v>
+        <v>176.6668750145353</v>
       </c>
       <c r="D27" t="n">
-        <v>130.3895343027634</v>
+        <v>125.6992632846784</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1303.895343027634</v>
+        <v>1256.992632846784</v>
       </c>
     </row>
     <row r="28">
@@ -12698,19 +12698,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8068.047862942573</v>
+        <v>7915.614054854811</v>
       </c>
       <c r="C28" t="n">
-        <v>1059.219538250865</v>
+        <v>883.3343750726766</v>
       </c>
       <c r="D28" t="n">
-        <v>651.9476715138171</v>
+        <v>628.496316423392</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6519.47671513817</v>
+        <v>6284.96316423392</v>
       </c>
     </row>
     <row r="29">
@@ -12720,19 +12720,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>193633.1487106218</v>
+        <v>189974.7373165155</v>
       </c>
       <c r="C29" t="n">
-        <v>25421.26891802075</v>
+        <v>21200.02500174424</v>
       </c>
       <c r="D29" t="n">
-        <v>15646.74411633161</v>
+        <v>15083.91159416141</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>156467.4411633161</v>
+        <v>150839.1159416141</v>
       </c>
     </row>
     <row r="30">
@@ -12742,19 +12742,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48408.28717765544</v>
+        <v>47493.68432912887</v>
       </c>
       <c r="C30" t="n">
-        <v>6355.317229505188</v>
+        <v>5300.006250436059</v>
       </c>
       <c r="D30" t="n">
-        <v>3911.686029082903</v>
+        <v>3770.977898540352</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>39116.86029082902</v>
+        <v>37709.77898540351</v>
       </c>
     </row>
     <row r="31">
@@ -12764,19 +12764,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435674.584598899</v>
+        <v>427443.1589621599</v>
       </c>
       <c r="C31" t="n">
-        <v>57197.8550655467</v>
+        <v>47700.05625392454</v>
       </c>
       <c r="D31" t="n">
-        <v>35205.17426174613</v>
+        <v>33938.80108686318</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>352051.7426174613</v>
+        <v>339388.0108686318</v>
       </c>
     </row>
     <row r="32">
@@ -12786,19 +12786,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96816.57435531088</v>
+        <v>94987.36865825774</v>
       </c>
       <c r="C32" t="n">
-        <v>12710.63445901038</v>
+        <v>10600.01250087212</v>
       </c>
       <c r="D32" t="n">
-        <v>7823.372058165805</v>
+        <v>7541.955797080705</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>78233.72058165804</v>
+        <v>75419.55797080703</v>
       </c>
     </row>
     <row r="33">
@@ -13096,13 +13096,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>588639.5896862962</v>
+        <v>636367.1239851849</v>
       </c>
       <c r="C2" t="n">
-        <v>882959.3845294439</v>
+        <v>954550.6859777771</v>
       </c>
       <c r="D2" t="n">
-        <v>4414796.92264722</v>
+        <v>4772753.429888886</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -13121,7 +13121,7 @@
         <v>636367.1239851849</v>
       </c>
       <c r="C3" t="n">
-        <v>954550.6859777771</v>
+        <v>954550.6859777772</v>
       </c>
       <c r="D3" t="n">
         <v>4772753.429888886</v>
@@ -13140,13 +13140,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>588639.5896862962</v>
+        <v>636367.1239851849</v>
       </c>
       <c r="C4" t="n">
-        <v>882959.3845294439</v>
+        <v>954550.6859777771</v>
       </c>
       <c r="D4" t="n">
-        <v>4414796.92264722</v>
+        <v>4772753.429888886</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -14066,13 +14066,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>589228.2292759824</v>
+        <v>637003.49110917</v>
       </c>
       <c r="C2" t="n">
-        <v>883842.3439139733</v>
+        <v>955505.2366637548</v>
       </c>
       <c r="D2" t="n">
-        <v>4419211.719569867</v>
+        <v>4777526.183318775</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -14091,7 +14091,7 @@
         <v>637003.49110917</v>
       </c>
       <c r="C3" t="n">
-        <v>955505.2366637548</v>
+        <v>955505.2366637549</v>
       </c>
       <c r="D3" t="n">
         <v>4777526.183318775</v>
@@ -14110,13 +14110,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>589228.2292759824</v>
+        <v>637003.49110917</v>
       </c>
       <c r="C4" t="n">
-        <v>883842.3439139733</v>
+        <v>955505.2366637549</v>
       </c>
       <c r="D4" t="n">
-        <v>4419211.719569867</v>
+        <v>4777526.183318775</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -15036,13 +15036,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>589817.4575052581</v>
+        <v>637640.494600279</v>
       </c>
       <c r="C2" t="n">
-        <v>884726.1862578873</v>
+        <v>956460.7419004185</v>
       </c>
       <c r="D2" t="n">
-        <v>4423630.931289436</v>
+        <v>4782303.709502093</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -15080,13 +15080,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>589817.4575052581</v>
+        <v>637640.494600279</v>
       </c>
       <c r="C4" t="n">
-        <v>884726.1862578873</v>
+        <v>956460.7419004185</v>
       </c>
       <c r="D4" t="n">
-        <v>4423630.931289436</v>
+        <v>4782303.709502093</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -16006,13 +16006,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>749976.8087364833</v>
+        <v>797847.6688685992</v>
       </c>
       <c r="C2" t="n">
-        <v>1124965.213104725</v>
+        <v>1196771.503302899</v>
       </c>
       <c r="D2" t="n">
-        <v>5624826.065523624</v>
+        <v>5983857.516514493</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -16034,7 +16034,7 @@
         <v>1196771.503302899</v>
       </c>
       <c r="D3" t="n">
-        <v>5983857.516514493</v>
+        <v>5983857.516514494</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -16050,13 +16050,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665879.0758558947</v>
+        <v>797847.6688685992</v>
       </c>
       <c r="C4" t="n">
-        <v>998818.6137838421</v>
+        <v>1196771.503302899</v>
       </c>
       <c r="D4" t="n">
-        <v>4994093.06891921</v>
+        <v>5983857.516514493</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -16976,13 +16976,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>750726.7855452198</v>
+        <v>798645.5165374677</v>
       </c>
       <c r="C2" t="n">
-        <v>1126090.17831783</v>
+        <v>1197968.274806201</v>
       </c>
       <c r="D2" t="n">
-        <v>5630450.891589148</v>
+        <v>5989841.374031008</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -16998,13 +16998,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>798645.5165374677</v>
+        <v>798645.5165374678</v>
       </c>
       <c r="C3" t="n">
         <v>1197968.274806201</v>
       </c>
       <c r="D3" t="n">
-        <v>5989841.374031008</v>
+        <v>5989841.374031009</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -17020,13 +17020,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>666544.9549317505</v>
+        <v>798645.5165374678</v>
       </c>
       <c r="C4" t="n">
-        <v>999817.4323976258</v>
+        <v>1197968.274806201</v>
       </c>
       <c r="D4" t="n">
-        <v>4999087.161988129</v>
+        <v>5989841.374031008</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -17946,13 +17946,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>751477.5123307648</v>
+        <v>799444.162054005</v>
       </c>
       <c r="C2" t="n">
-        <v>1127216.268496147</v>
+        <v>1199166.243081008</v>
       </c>
       <c r="D2" t="n">
-        <v>5636081.342480736</v>
+        <v>5995831.215405038</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -17968,13 +17968,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>799444.162054005</v>
+        <v>799444.1620540051</v>
       </c>
       <c r="C3" t="n">
         <v>1199166.243081008</v>
       </c>
       <c r="D3" t="n">
-        <v>5995831.215405038</v>
+        <v>5995831.215405039</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -17990,13 +17990,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667211.4998866821</v>
+        <v>799444.1620540051</v>
       </c>
       <c r="C4" t="n">
-        <v>1000817.249830023</v>
+        <v>1199166.243081008</v>
       </c>
       <c r="D4" t="n">
-        <v>5004086.249150116</v>
+        <v>5995831.215405038</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -18916,13 +18916,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>752228.9898430955</v>
+        <v>800243.6062160589</v>
       </c>
       <c r="C2" t="n">
-        <v>1128343.484764643</v>
+        <v>1200365.409324089</v>
       </c>
       <c r="D2" t="n">
-        <v>5641717.423823216</v>
+        <v>6001827.046620443</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -18938,7 +18938,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>800243.6062160589</v>
+        <v>800243.6062160591</v>
       </c>
       <c r="C3" t="n">
         <v>1200365.409324089</v>
@@ -18960,13 +18960,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667878.7113865688</v>
+        <v>800243.6062160591</v>
       </c>
       <c r="C4" t="n">
-        <v>1001818.067079853</v>
+        <v>1200365.409324089</v>
       </c>
       <c r="D4" t="n">
-        <v>5009090.335399266</v>
+        <v>6001827.046620443</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -19092,19 +19092,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1595965.905639887</v>
+        <v>1565812.494962648</v>
       </c>
       <c r="C10" t="n">
-        <v>209527.5459879899</v>
+        <v>174735.1490527148</v>
       </c>
       <c r="D10" t="n">
-        <v>128963.8179734198</v>
+        <v>124324.8317153831</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1289638.179734198</v>
+        <v>1243248.317153831</v>
       </c>
     </row>
     <row r="11">
@@ -19114,19 +19114,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>255354.5449023818</v>
+        <v>250529.9991940237</v>
       </c>
       <c r="C11" t="n">
-        <v>33524.40735807839</v>
+        <v>27957.62384843436</v>
       </c>
       <c r="D11" t="n">
-        <v>20634.21087574716</v>
+        <v>19891.97307446129</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>206342.1087574716</v>
+        <v>198919.7307446129</v>
       </c>
     </row>
     <row r="12">
@@ -19136,19 +19136,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>127677.2724511909</v>
+        <v>125264.9995970119</v>
       </c>
       <c r="C12" t="n">
-        <v>16762.20367903919</v>
+        <v>13978.81192421718</v>
       </c>
       <c r="D12" t="n">
-        <v>10317.10543787358</v>
+        <v>9945.986537230647</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>103171.0543787358</v>
+        <v>99459.86537230645</v>
       </c>
     </row>
     <row r="13">
@@ -19158,19 +19158,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>207475.5677331852</v>
+        <v>203555.6243451443</v>
       </c>
       <c r="C13" t="n">
-        <v>27238.58097843869</v>
+        <v>22715.56937685292</v>
       </c>
       <c r="D13" t="n">
-        <v>16765.29633654457</v>
+        <v>16162.2281229998</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>167652.9633654457</v>
+        <v>161622.281229998</v>
       </c>
     </row>
     <row r="14">
@@ -19180,19 +19180,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>143636.9315075898</v>
+        <v>140923.1245466383</v>
       </c>
       <c r="C14" t="n">
-        <v>18857.47913891909</v>
+        <v>15726.16341474433</v>
       </c>
       <c r="D14" t="n">
-        <v>11606.74361760778</v>
+        <v>11189.23485438448</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>116067.4361760778</v>
+        <v>111892.3485438448</v>
       </c>
     </row>
     <row r="15">
@@ -19202,19 +19202,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>718184.6575379488</v>
+        <v>704615.6227331916</v>
       </c>
       <c r="C15" t="n">
-        <v>94287.39569459546</v>
+        <v>78630.81707372164</v>
       </c>
       <c r="D15" t="n">
-        <v>58033.71808803889</v>
+        <v>55946.17427192238</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>580337.1808803888</v>
+        <v>559461.7427192238</v>
       </c>
     </row>
     <row r="16">
@@ -19224,19 +19224,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1276772.724511909</v>
+        <v>1252649.995970119</v>
       </c>
       <c r="C16" t="n">
-        <v>167622.0367903919</v>
+        <v>139788.1192421718</v>
       </c>
       <c r="D16" t="n">
-        <v>103171.0543787358</v>
+        <v>99459.86537230646</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1031710.543787358</v>
+        <v>994598.6537230645</v>
       </c>
     </row>
     <row r="17">
@@ -19246,19 +19246,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>478789.771691966</v>
+        <v>469743.7484887945</v>
       </c>
       <c r="C17" t="n">
-        <v>62858.26379639698</v>
+        <v>52420.54471581444</v>
       </c>
       <c r="D17" t="n">
-        <v>38689.14539202593</v>
+        <v>37297.44951461493</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>386891.4539202593</v>
+        <v>372974.4951461493</v>
       </c>
     </row>
     <row r="18">
@@ -19268,19 +19268,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>159596.5905639886</v>
+        <v>156581.2494962648</v>
       </c>
       <c r="C18" t="n">
-        <v>20952.75459879899</v>
+        <v>17473.51490527148</v>
       </c>
       <c r="D18" t="n">
-        <v>12896.38179734198</v>
+        <v>12432.48317153831</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>128963.8179734197</v>
+        <v>124324.8317153831</v>
       </c>
     </row>
     <row r="19">
@@ -19290,19 +19290,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>829902.2709327409</v>
+        <v>814222.497380577</v>
       </c>
       <c r="C19" t="n">
-        <v>108954.3239137547</v>
+        <v>90862.27750741168</v>
       </c>
       <c r="D19" t="n">
-        <v>67061.18534617827</v>
+        <v>64648.9124919992</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>670611.8534617827</v>
+        <v>646489.1249199919</v>
       </c>
     </row>
     <row r="20">
@@ -19312,19 +19312,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15959.65905639886</v>
+        <v>15658.12494962648</v>
       </c>
       <c r="C20" t="n">
-        <v>2095.275459879899</v>
+        <v>1747.351490527148</v>
       </c>
       <c r="D20" t="n">
-        <v>1289.638179734198</v>
+        <v>1243.248317153831</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>12896.38179734198</v>
+        <v>12432.48317153831</v>
       </c>
     </row>
     <row r="21">
@@ -19334,19 +19334,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>430910.7945227694</v>
+        <v>422769.3736399151</v>
       </c>
       <c r="C21" t="n">
-        <v>56572.43741675728</v>
+        <v>47178.49024423299</v>
       </c>
       <c r="D21" t="n">
-        <v>34820.23085282334</v>
+        <v>33567.70456315343</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>348202.3085282334</v>
+        <v>335677.0456315344</v>
       </c>
     </row>
     <row r="22">
@@ -19356,19 +19356,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>319193.1811279773</v>
+        <v>313162.4989925296</v>
       </c>
       <c r="C22" t="n">
-        <v>41905.50919759798</v>
+        <v>34947.02981054295</v>
       </c>
       <c r="D22" t="n">
-        <v>25792.76359468395</v>
+        <v>24864.96634307662</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>257927.6359468395</v>
+        <v>248649.6634307661</v>
       </c>
     </row>
     <row r="23">
@@ -19378,19 +19378,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>111717.613394792</v>
+        <v>109606.8746473854</v>
       </c>
       <c r="C23" t="n">
-        <v>14666.92821915929</v>
+        <v>12231.46043369003</v>
       </c>
       <c r="D23" t="n">
-        <v>9027.467258139382</v>
+        <v>8702.738220076815</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>90274.67258139382</v>
+        <v>87027.38220076816</v>
       </c>
     </row>
     <row r="24">
@@ -19400,19 +19400,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>702224.99848155</v>
+        <v>688957.4977835652</v>
       </c>
       <c r="C24" t="n">
-        <v>92192.12023471556</v>
+        <v>76883.4655831945</v>
       </c>
       <c r="D24" t="n">
-        <v>56744.07990830469</v>
+        <v>54702.92595476856</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>567440.799083047</v>
+        <v>547029.2595476856</v>
       </c>
     </row>
     <row r="25">
@@ -19422,19 +19422,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>590507.3850867579</v>
+        <v>579350.6231361798</v>
       </c>
       <c r="C25" t="n">
-        <v>77525.19201555627</v>
+        <v>64652.00514950447</v>
       </c>
       <c r="D25" t="n">
-        <v>47716.61265016531</v>
+        <v>46000.18773469174</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>477166.1265016531</v>
+        <v>460001.8773469173</v>
       </c>
     </row>
     <row r="26">
@@ -19444,19 +19444,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>319193.1811279773</v>
+        <v>313162.4989925296</v>
       </c>
       <c r="C26" t="n">
-        <v>41905.50919759798</v>
+        <v>34947.02981054295</v>
       </c>
       <c r="D26" t="n">
-        <v>25792.76359468395</v>
+        <v>24864.96634307662</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>257927.6359468395</v>
+        <v>248649.6634307661</v>
       </c>
     </row>
     <row r="27">
@@ -19466,19 +19466,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1595.965905639886</v>
+        <v>1565.812494962648</v>
       </c>
       <c r="C27" t="n">
-        <v>209.5275459879899</v>
+        <v>174.7351490527148</v>
       </c>
       <c r="D27" t="n">
-        <v>128.9638179734198</v>
+        <v>124.3248317153831</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1289.638179734197</v>
+        <v>1243.248317153831</v>
       </c>
     </row>
     <row r="28">
@@ -19488,19 +19488,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7979.829528199432</v>
+        <v>7829.062474813241</v>
       </c>
       <c r="C28" t="n">
-        <v>1047.63772993995</v>
+        <v>873.6757452635738</v>
       </c>
       <c r="D28" t="n">
-        <v>644.8190898670988</v>
+        <v>621.6241585769154</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6448.190898670988</v>
+        <v>6216.241585769153</v>
       </c>
     </row>
     <row r="29">
@@ -19510,19 +19510,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>191515.9086767863</v>
+        <v>187897.4993955177</v>
       </c>
       <c r="C29" t="n">
-        <v>25143.30551855879</v>
+        <v>20968.21788632577</v>
       </c>
       <c r="D29" t="n">
-        <v>15475.65815681037</v>
+        <v>14918.97980584597</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>154756.5815681037</v>
+        <v>149189.7980584597</v>
       </c>
     </row>
     <row r="30">
@@ -19532,19 +19532,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>47878.97716919659</v>
+        <v>46974.37484887944</v>
       </c>
       <c r="C30" t="n">
-        <v>6285.826379639697</v>
+        <v>5242.054471581443</v>
       </c>
       <c r="D30" t="n">
-        <v>3868.914539202593</v>
+        <v>3729.744951461492</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>38689.14539202592</v>
+        <v>37297.44951461491</v>
       </c>
     </row>
     <row r="31">
@@ -19554,19 +19554,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>430910.7945227694</v>
+        <v>422769.3736399151</v>
       </c>
       <c r="C31" t="n">
-        <v>56572.43741675728</v>
+        <v>47178.49024423299</v>
       </c>
       <c r="D31" t="n">
-        <v>34820.23085282334</v>
+        <v>33567.70456315343</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>348202.3085282334</v>
+        <v>335677.0456315344</v>
       </c>
     </row>
     <row r="32">
@@ -19576,19 +19576,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>95757.95433839317</v>
+        <v>93948.74969775887</v>
       </c>
       <c r="C32" t="n">
-        <v>12571.65275927939</v>
+        <v>10484.10894316289</v>
       </c>
       <c r="D32" t="n">
-        <v>7737.829078405185</v>
+        <v>7459.489902922985</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>77378.29078405183</v>
+        <v>74594.89902922983</v>
       </c>
     </row>
     <row r="33">
